--- a/log_align_ascend/time_report.xlsx
+++ b/log_align_ascend/time_report.xlsx
@@ -8,6 +8,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dim=64" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dim=96" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dim=128" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +488,7131 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D2" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2" t="n">
+        <v>423.05</v>
+      </c>
+      <c r="F2" t="n">
+        <v>755.3099999999999</v>
+      </c>
+      <c r="G2" t="n">
+        <v>579.0700000000001</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1360.81</v>
+      </c>
+      <c r="I2" t="n">
+        <v>536.6900000000001</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1509.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D3" t="n">
+        <v>96</v>
+      </c>
+      <c r="E3" t="n">
+        <v>387.48</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1258.16</v>
+      </c>
+      <c r="G3" t="n">
+        <v>820.22</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2290.4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>572.23</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1404.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D4" t="n">
+        <v>128</v>
+      </c>
+      <c r="E4" t="n">
+        <v>407.46</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1065.87</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1803.64</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2368.84</v>
+      </c>
+      <c r="I4" t="n">
+        <v>770.74</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1287.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D5" t="n">
+        <v>64</v>
+      </c>
+      <c r="E5" t="n">
+        <v>369.92</v>
+      </c>
+      <c r="F5" t="n">
+        <v>781.91</v>
+      </c>
+      <c r="G5" t="n">
+        <v>945.6799999999999</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2651.28</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1023.94</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2156.69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E6" t="n">
+        <v>423.11</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2013.27</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1199.01</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3424.69</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1154.8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2543.75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D7" t="n">
+        <v>128</v>
+      </c>
+      <c r="E7" t="n">
+        <v>464.77</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1350</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1615.3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3349.94</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1512.86</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2509.21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D8" t="n">
+        <v>64</v>
+      </c>
+      <c r="E8" t="n">
+        <v>510.97</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1040.86</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1679.94</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4722.72</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1604.97</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3654.17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D9" t="n">
+        <v>96</v>
+      </c>
+      <c r="E9" t="n">
+        <v>572.5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>954.74</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1798.09</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5430.52</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2927.48</v>
+      </c>
+      <c r="J9" t="n">
+        <v>7054.29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D10" t="n">
+        <v>128</v>
+      </c>
+      <c r="E10" t="n">
+        <v>602.14</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1340.62</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1882.55</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5595.41</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2452.63</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6225.32</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D11" t="n">
+        <v>64</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1023.69</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2015.46</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5382.45</v>
+      </c>
+      <c r="H11" t="n">
+        <v>13350.14</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5591.3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>11276.34</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D12" t="n">
+        <v>96</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1210.06</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3532.06</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4732.14</v>
+      </c>
+      <c r="H12" t="n">
+        <v>12874.73</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8410.700000000001</v>
+      </c>
+      <c r="J12" t="n">
+        <v>22338.07</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D13" t="n">
+        <v>128</v>
+      </c>
+      <c r="E13" t="n">
+        <v>869.97</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1710.85</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4014.69</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10944.46</v>
+      </c>
+      <c r="I13" t="n">
+        <v>8315.68</v>
+      </c>
+      <c r="J13" t="n">
+        <v>21714.07</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D14" t="n">
+        <v>64</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1471.58</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3427.42</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6327.3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>18697.12</v>
+      </c>
+      <c r="I14" t="n">
+        <v>15137.31</v>
+      </c>
+      <c r="J14" t="n">
+        <v>36911.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D15" t="n">
+        <v>96</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1399.2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3380.78</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7552.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>22099.08</v>
+      </c>
+      <c r="I15" t="n">
+        <v>24742.81</v>
+      </c>
+      <c r="J15" t="n">
+        <v>88454.03999999999</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D16" t="n">
+        <v>128</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1450.09</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3201.62</v>
+      </c>
+      <c r="G16" t="n">
+        <v>7739.3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>22783.43</v>
+      </c>
+      <c r="I16" t="n">
+        <v>22935.9</v>
+      </c>
+      <c r="J16" t="n">
+        <v>88567.53</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D17" t="n">
+        <v>64</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3542.63</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6711.47</v>
+      </c>
+      <c r="G17" t="n">
+        <v>13280.39</v>
+      </c>
+      <c r="H17" t="n">
+        <v>38140.03</v>
+      </c>
+      <c r="I17" t="n">
+        <v>51574.38</v>
+      </c>
+      <c r="J17" t="n">
+        <v>152341.51</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D18" t="n">
+        <v>96</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4343.89</v>
+      </c>
+      <c r="F18" t="n">
+        <v>7749.36</v>
+      </c>
+      <c r="G18" t="n">
+        <v>13164.22</v>
+      </c>
+      <c r="H18" t="n">
+        <v>41697.72</v>
+      </c>
+      <c r="I18" t="n">
+        <v>83453.92999999999</v>
+      </c>
+      <c r="J18" t="n">
+        <v>358293.33</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D19" t="n">
+        <v>128</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2994.37</v>
+      </c>
+      <c r="F19" t="n">
+        <v>6685.98</v>
+      </c>
+      <c r="G19" t="n">
+        <v>14020.09</v>
+      </c>
+      <c r="H19" t="n">
+        <v>43157.47</v>
+      </c>
+      <c r="I19" t="n">
+        <v>88426.37</v>
+      </c>
+      <c r="J19" t="n">
+        <v>356403.24</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D20" t="n">
+        <v>64</v>
+      </c>
+      <c r="E20" t="n">
+        <v>352.14</v>
+      </c>
+      <c r="F20" t="n">
+        <v>791.64</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1000.19</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3060.78</v>
+      </c>
+      <c r="I20" t="n">
+        <v>874.05</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1354.54</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D21" t="n">
+        <v>96</v>
+      </c>
+      <c r="E21" t="n">
+        <v>388.51</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1202.3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>765.01</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3573.93</v>
+      </c>
+      <c r="I21" t="n">
+        <v>727.8200000000001</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1481.45</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D22" t="n">
+        <v>128</v>
+      </c>
+      <c r="E22" t="n">
+        <v>366.22</v>
+      </c>
+      <c r="F22" t="n">
+        <v>932.3099999999999</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1038.37</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3394.57</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1566.32</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3357.71</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4</v>
+      </c>
+      <c r="C23" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D23" t="n">
+        <v>64</v>
+      </c>
+      <c r="E23" t="n">
+        <v>399.05</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2149.34</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1627.72</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3378.63</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1015.51</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2683.41</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D24" t="n">
+        <v>96</v>
+      </c>
+      <c r="E24" t="n">
+        <v>387.11</v>
+      </c>
+      <c r="F24" t="n">
+        <v>908.79</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1418.8</v>
+      </c>
+      <c r="H24" t="n">
+        <v>7584.95</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1651.9</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3785.89</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4</v>
+      </c>
+      <c r="C25" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D25" t="n">
+        <v>128</v>
+      </c>
+      <c r="E25" t="n">
+        <v>441.38</v>
+      </c>
+      <c r="F25" t="n">
+        <v>809.6799999999999</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1424</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3999.83</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1404.4</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3756.01</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C26" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D26" t="n">
+        <v>64</v>
+      </c>
+      <c r="E26" t="n">
+        <v>522.24</v>
+      </c>
+      <c r="F26" t="n">
+        <v>889.52</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2268.81</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5222.33</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4493.83</v>
+      </c>
+      <c r="J26" t="n">
+        <v>7877.93</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4</v>
+      </c>
+      <c r="C27" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D27" t="n">
+        <v>96</v>
+      </c>
+      <c r="E27" t="n">
+        <v>764.9299999999999</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1476.16</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2132.52</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5875.63</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3855.62</v>
+      </c>
+      <c r="J27" t="n">
+        <v>10928.82</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4</v>
+      </c>
+      <c r="C28" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D28" t="n">
+        <v>128</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1035.61</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3083.14</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2176.31</v>
+      </c>
+      <c r="H28" t="n">
+        <v>6029.12</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3750.43</v>
+      </c>
+      <c r="J28" t="n">
+        <v>10561.03</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4</v>
+      </c>
+      <c r="C29" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D29" t="n">
+        <v>64</v>
+      </c>
+      <c r="E29" t="n">
+        <v>879.86</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1608.19</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5287.3</v>
+      </c>
+      <c r="H29" t="n">
+        <v>11465.01</v>
+      </c>
+      <c r="I29" t="n">
+        <v>7335.79</v>
+      </c>
+      <c r="J29" t="n">
+        <v>17998.48</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4</v>
+      </c>
+      <c r="C30" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D30" t="n">
+        <v>96</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1350.82</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3001.19</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4108.92</v>
+      </c>
+      <c r="H30" t="n">
+        <v>11732.24</v>
+      </c>
+      <c r="I30" t="n">
+        <v>12409.61</v>
+      </c>
+      <c r="J30" t="n">
+        <v>42743.14</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4</v>
+      </c>
+      <c r="C31" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D31" t="n">
+        <v>128</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1017.57</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2569.88</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4125.13</v>
+      </c>
+      <c r="H31" t="n">
+        <v>11825.38</v>
+      </c>
+      <c r="I31" t="n">
+        <v>12292.64</v>
+      </c>
+      <c r="J31" t="n">
+        <v>42496.56</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="n">
+        <v>4</v>
+      </c>
+      <c r="C32" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D32" t="n">
+        <v>64</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2282.18</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3811.91</v>
+      </c>
+      <c r="G32" t="n">
+        <v>6869.75</v>
+      </c>
+      <c r="H32" t="n">
+        <v>19664.03</v>
+      </c>
+      <c r="I32" t="n">
+        <v>28860.25</v>
+      </c>
+      <c r="J32" t="n">
+        <v>74065.35000000001</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="n">
+        <v>4</v>
+      </c>
+      <c r="C33" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D33" t="n">
+        <v>96</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2426.33</v>
+      </c>
+      <c r="F33" t="n">
+        <v>5433.01</v>
+      </c>
+      <c r="G33" t="n">
+        <v>6945.8</v>
+      </c>
+      <c r="H33" t="n">
+        <v>21715.06</v>
+      </c>
+      <c r="I33" t="n">
+        <v>43110.14</v>
+      </c>
+      <c r="J33" t="n">
+        <v>182930.06</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="n">
+        <v>4</v>
+      </c>
+      <c r="C34" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D34" t="n">
+        <v>128</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2861.15</v>
+      </c>
+      <c r="F34" t="n">
+        <v>6868.3</v>
+      </c>
+      <c r="G34" t="n">
+        <v>8455.120000000001</v>
+      </c>
+      <c r="H34" t="n">
+        <v>24627.72</v>
+      </c>
+      <c r="I34" t="n">
+        <v>43000.49</v>
+      </c>
+      <c r="J34" t="n">
+        <v>184699.95</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4</v>
+      </c>
+      <c r="C35" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D35" t="n">
+        <v>64</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2961.5</v>
+      </c>
+      <c r="F35" t="n">
+        <v>6532.68</v>
+      </c>
+      <c r="G35" t="n">
+        <v>12891.12</v>
+      </c>
+      <c r="H35" t="n">
+        <v>38019.22</v>
+      </c>
+      <c r="I35" t="n">
+        <v>101772.68</v>
+      </c>
+      <c r="J35" t="n">
+        <v>302310.49</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="n">
+        <v>4</v>
+      </c>
+      <c r="C36" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D36" t="n">
+        <v>96</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3299.87</v>
+      </c>
+      <c r="F36" t="n">
+        <v>7395.71</v>
+      </c>
+      <c r="G36" t="n">
+        <v>14458.77</v>
+      </c>
+      <c r="H36" t="n">
+        <v>43949.42</v>
+      </c>
+      <c r="I36" t="n">
+        <v>167975.78</v>
+      </c>
+      <c r="J36" t="n">
+        <v>723832.12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="n">
+        <v>4</v>
+      </c>
+      <c r="C37" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D37" t="n">
+        <v>128</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3559.18</v>
+      </c>
+      <c r="F37" t="n">
+        <v>7720.56</v>
+      </c>
+      <c r="G37" t="n">
+        <v>15310.73</v>
+      </c>
+      <c r="H37" t="n">
+        <v>47463.01</v>
+      </c>
+      <c r="I37" t="n">
+        <v>170647.08</v>
+      </c>
+      <c r="J37" t="n">
+        <v>724669.17</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" t="n">
+        <v>8</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D38" t="n">
+        <v>64</v>
+      </c>
+      <c r="E38" t="n">
+        <v>441.69</v>
+      </c>
+      <c r="F38" t="n">
+        <v>3344.41</v>
+      </c>
+      <c r="G38" t="n">
+        <v>857.1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3390.81</v>
+      </c>
+      <c r="I38" t="n">
+        <v>615.6</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1562.07</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="n">
+        <v>8</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D39" t="n">
+        <v>96</v>
+      </c>
+      <c r="E39" t="n">
+        <v>425.31</v>
+      </c>
+      <c r="F39" t="n">
+        <v>761.33</v>
+      </c>
+      <c r="G39" t="n">
+        <v>711.03</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2217.91</v>
+      </c>
+      <c r="I39" t="n">
+        <v>824.9400000000001</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2412.76</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" t="n">
+        <v>8</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D40" t="n">
+        <v>128</v>
+      </c>
+      <c r="E40" t="n">
+        <v>449.75</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1858.18</v>
+      </c>
+      <c r="G40" t="n">
+        <v>813.1900000000001</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2116.94</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1458.99</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3393.13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" t="n">
+        <v>8</v>
+      </c>
+      <c r="C41" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D41" t="n">
+        <v>64</v>
+      </c>
+      <c r="E41" t="n">
+        <v>470.22</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2579.83</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1101.27</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3028.41</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1872.81</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3988.03</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="n">
+        <v>8</v>
+      </c>
+      <c r="C42" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D42" t="n">
+        <v>96</v>
+      </c>
+      <c r="E42" t="n">
+        <v>486.83</v>
+      </c>
+      <c r="F42" t="n">
+        <v>918.64</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1312.93</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3646.38</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2543.91</v>
+      </c>
+      <c r="J42" t="n">
+        <v>6689.91</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="n">
+        <v>8</v>
+      </c>
+      <c r="C43" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D43" t="n">
+        <v>128</v>
+      </c>
+      <c r="E43" t="n">
+        <v>530.26</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1460.43</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1271.38</v>
+      </c>
+      <c r="H43" t="n">
+        <v>5392.06</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2409.39</v>
+      </c>
+      <c r="J43" t="n">
+        <v>6441.03</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" t="n">
+        <v>8</v>
+      </c>
+      <c r="C44" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D44" t="n">
+        <v>64</v>
+      </c>
+      <c r="E44" t="n">
+        <v>734.67</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2150.9</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1856.35</v>
+      </c>
+      <c r="H44" t="n">
+        <v>5545.6</v>
+      </c>
+      <c r="I44" t="n">
+        <v>4084.74</v>
+      </c>
+      <c r="J44" t="n">
+        <v>10711.71</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="n">
+        <v>8</v>
+      </c>
+      <c r="C45" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D45" t="n">
+        <v>96</v>
+      </c>
+      <c r="E45" t="n">
+        <v>802.6799999999999</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1864.4</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2462.57</v>
+      </c>
+      <c r="H45" t="n">
+        <v>6464.57</v>
+      </c>
+      <c r="I45" t="n">
+        <v>8729.540000000001</v>
+      </c>
+      <c r="J45" t="n">
+        <v>25427.07</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1</v>
+      </c>
+      <c r="B46" t="n">
+        <v>8</v>
+      </c>
+      <c r="C46" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D46" t="n">
+        <v>128</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1004.92</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3227.19</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2455.3</v>
+      </c>
+      <c r="H46" t="n">
+        <v>6923.06</v>
+      </c>
+      <c r="I46" t="n">
+        <v>6222.37</v>
+      </c>
+      <c r="J46" t="n">
+        <v>22551.75</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" t="n">
+        <v>8</v>
+      </c>
+      <c r="C47" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D47" t="n">
+        <v>64</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1268.64</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2639.31</v>
+      </c>
+      <c r="G47" t="n">
+        <v>3833.93</v>
+      </c>
+      <c r="H47" t="n">
+        <v>10277.51</v>
+      </c>
+      <c r="I47" t="n">
+        <v>13192.63</v>
+      </c>
+      <c r="J47" t="n">
+        <v>38578.86</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1</v>
+      </c>
+      <c r="B48" t="n">
+        <v>8</v>
+      </c>
+      <c r="C48" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D48" t="n">
+        <v>96</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1154.24</v>
+      </c>
+      <c r="F48" t="n">
+        <v>4368.95</v>
+      </c>
+      <c r="G48" t="n">
+        <v>6345.68</v>
+      </c>
+      <c r="H48" t="n">
+        <v>13703.4</v>
+      </c>
+      <c r="I48" t="n">
+        <v>22139.54</v>
+      </c>
+      <c r="J48" t="n">
+        <v>92336.92</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1</v>
+      </c>
+      <c r="B49" t="n">
+        <v>8</v>
+      </c>
+      <c r="C49" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D49" t="n">
+        <v>128</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1929.08</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4023.48</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3893.59</v>
+      </c>
+      <c r="H49" t="n">
+        <v>12347.56</v>
+      </c>
+      <c r="I49" t="n">
+        <v>21635.53</v>
+      </c>
+      <c r="J49" t="n">
+        <v>92131.69</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" t="n">
+        <v>8</v>
+      </c>
+      <c r="C50" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D50" t="n">
+        <v>64</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2220.75</v>
+      </c>
+      <c r="F50" t="n">
+        <v>5542.54</v>
+      </c>
+      <c r="G50" t="n">
+        <v>9214.129999999999</v>
+      </c>
+      <c r="H50" t="n">
+        <v>21136.64</v>
+      </c>
+      <c r="I50" t="n">
+        <v>50100.58</v>
+      </c>
+      <c r="J50" t="n">
+        <v>156748.52</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1</v>
+      </c>
+      <c r="B51" t="n">
+        <v>8</v>
+      </c>
+      <c r="C51" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D51" t="n">
+        <v>96</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2059.2</v>
+      </c>
+      <c r="F51" t="n">
+        <v>4988.72</v>
+      </c>
+      <c r="G51" t="n">
+        <v>8227.049999999999</v>
+      </c>
+      <c r="H51" t="n">
+        <v>24296.36</v>
+      </c>
+      <c r="I51" t="n">
+        <v>82781.8</v>
+      </c>
+      <c r="J51" t="n">
+        <v>380012.55</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B52" t="n">
+        <v>8</v>
+      </c>
+      <c r="C52" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D52" t="n">
+        <v>128</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3159.04</v>
+      </c>
+      <c r="F52" t="n">
+        <v>8528.6</v>
+      </c>
+      <c r="G52" t="n">
+        <v>10054.29</v>
+      </c>
+      <c r="H52" t="n">
+        <v>26818.41</v>
+      </c>
+      <c r="I52" t="n">
+        <v>83656.92999999999</v>
+      </c>
+      <c r="J52" t="n">
+        <v>383861.25</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B53" t="n">
+        <v>8</v>
+      </c>
+      <c r="C53" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D53" t="n">
+        <v>64</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2937.44</v>
+      </c>
+      <c r="F53" t="n">
+        <v>6968.38</v>
+      </c>
+      <c r="G53" t="n">
+        <v>13152.35</v>
+      </c>
+      <c r="H53" t="n">
+        <v>39000.05</v>
+      </c>
+      <c r="I53" t="n">
+        <v>203124.14</v>
+      </c>
+      <c r="J53" t="n">
+        <v>657327.79</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" t="n">
+        <v>8</v>
+      </c>
+      <c r="C54" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D54" t="n">
+        <v>96</v>
+      </c>
+      <c r="E54" t="n">
+        <v>4667.57</v>
+      </c>
+      <c r="F54" t="n">
+        <v>10754.21</v>
+      </c>
+      <c r="G54" t="n">
+        <v>15520.04</v>
+      </c>
+      <c r="H54" t="n">
+        <v>47868.25</v>
+      </c>
+      <c r="I54" t="n">
+        <v>332142.95</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1536831.92</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1</v>
+      </c>
+      <c r="B55" t="n">
+        <v>8</v>
+      </c>
+      <c r="C55" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D55" t="n">
+        <v>128</v>
+      </c>
+      <c r="E55" t="n">
+        <v>6784.33</v>
+      </c>
+      <c r="F55" t="n">
+        <v>14848.06</v>
+      </c>
+      <c r="G55" t="n">
+        <v>18328.72</v>
+      </c>
+      <c r="H55" t="n">
+        <v>50569.25</v>
+      </c>
+      <c r="I55" t="n">
+        <v>337346.75</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1558449.79</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1</v>
+      </c>
+      <c r="B56" t="n">
+        <v>12</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D56" t="n">
+        <v>64</v>
+      </c>
+      <c r="E56" t="n">
+        <v>400.85</v>
+      </c>
+      <c r="F56" t="n">
+        <v>776.9299999999999</v>
+      </c>
+      <c r="G56" t="n">
+        <v>647.77</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2017.5</v>
+      </c>
+      <c r="I56" t="n">
+        <v>738.9400000000001</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1829.18</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1</v>
+      </c>
+      <c r="B57" t="n">
+        <v>12</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D57" t="n">
+        <v>96</v>
+      </c>
+      <c r="E57" t="n">
+        <v>605.54</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1090.2</v>
+      </c>
+      <c r="G57" t="n">
+        <v>888.9</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2872.7</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1062.55</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2839.61</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" t="n">
+        <v>12</v>
+      </c>
+      <c r="C58" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D58" t="n">
+        <v>128</v>
+      </c>
+      <c r="E58" t="n">
+        <v>546.26</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2662.39</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1043.23</v>
+      </c>
+      <c r="H58" t="n">
+        <v>4052.29</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1026.25</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2742.54</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" t="n">
+        <v>12</v>
+      </c>
+      <c r="C59" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D59" t="n">
+        <v>64</v>
+      </c>
+      <c r="E59" t="n">
+        <v>499.16</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1104.28</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1294.19</v>
+      </c>
+      <c r="H59" t="n">
+        <v>4348.52</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1711.79</v>
+      </c>
+      <c r="J59" t="n">
+        <v>4279.7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" t="n">
+        <v>12</v>
+      </c>
+      <c r="C60" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D60" t="n">
+        <v>96</v>
+      </c>
+      <c r="E60" t="n">
+        <v>495.11</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1002.03</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1183.78</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3455.69</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2597.45</v>
+      </c>
+      <c r="J60" t="n">
+        <v>8967.629999999999</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" t="n">
+        <v>12</v>
+      </c>
+      <c r="C61" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D61" t="n">
+        <v>128</v>
+      </c>
+      <c r="E61" t="n">
+        <v>585.47</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2020.52</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1261.8</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3595.96</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2588.69</v>
+      </c>
+      <c r="J61" t="n">
+        <v>8828.33</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1</v>
+      </c>
+      <c r="B62" t="n">
+        <v>12</v>
+      </c>
+      <c r="C62" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D62" t="n">
+        <v>64</v>
+      </c>
+      <c r="E62" t="n">
+        <v>996.89</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2535.35</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1968.62</v>
+      </c>
+      <c r="H62" t="n">
+        <v>5379.69</v>
+      </c>
+      <c r="I62" t="n">
+        <v>5437.22</v>
+      </c>
+      <c r="J62" t="n">
+        <v>15228.49</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1</v>
+      </c>
+      <c r="B63" t="n">
+        <v>12</v>
+      </c>
+      <c r="C63" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D63" t="n">
+        <v>96</v>
+      </c>
+      <c r="E63" t="n">
+        <v>954.61</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2914</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2519.25</v>
+      </c>
+      <c r="H63" t="n">
+        <v>7779.9</v>
+      </c>
+      <c r="I63" t="n">
+        <v>8591.700000000001</v>
+      </c>
+      <c r="J63" t="n">
+        <v>33909.12</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1</v>
+      </c>
+      <c r="B64" t="n">
+        <v>12</v>
+      </c>
+      <c r="C64" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D64" t="n">
+        <v>128</v>
+      </c>
+      <c r="E64" t="n">
+        <v>951.55</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2441.23</v>
+      </c>
+      <c r="G64" t="n">
+        <v>3533.11</v>
+      </c>
+      <c r="H64" t="n">
+        <v>7847.6</v>
+      </c>
+      <c r="I64" t="n">
+        <v>8635.35</v>
+      </c>
+      <c r="J64" t="n">
+        <v>34130.55</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1</v>
+      </c>
+      <c r="B65" t="n">
+        <v>12</v>
+      </c>
+      <c r="C65" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1854.51</v>
+      </c>
+      <c r="F65" t="n">
+        <v>3821.21</v>
+      </c>
+      <c r="G65" t="n">
+        <v>3464.37</v>
+      </c>
+      <c r="H65" t="n">
+        <v>9954.42</v>
+      </c>
+      <c r="I65" t="n">
+        <v>18956.18</v>
+      </c>
+      <c r="J65" t="n">
+        <v>59091.75</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1</v>
+      </c>
+      <c r="B66" t="n">
+        <v>12</v>
+      </c>
+      <c r="C66" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D66" t="n">
+        <v>96</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1254.02</v>
+      </c>
+      <c r="F66" t="n">
+        <v>3197.43</v>
+      </c>
+      <c r="G66" t="n">
+        <v>4032.67</v>
+      </c>
+      <c r="H66" t="n">
+        <v>12435.05</v>
+      </c>
+      <c r="I66" t="n">
+        <v>30716.77</v>
+      </c>
+      <c r="J66" t="n">
+        <v>143004.31</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1</v>
+      </c>
+      <c r="B67" t="n">
+        <v>12</v>
+      </c>
+      <c r="C67" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D67" t="n">
+        <v>128</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1457.39</v>
+      </c>
+      <c r="F67" t="n">
+        <v>3892.18</v>
+      </c>
+      <c r="G67" t="n">
+        <v>4468.42</v>
+      </c>
+      <c r="H67" t="n">
+        <v>13357.96</v>
+      </c>
+      <c r="I67" t="n">
+        <v>31155.46</v>
+      </c>
+      <c r="J67" t="n">
+        <v>143941.3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1</v>
+      </c>
+      <c r="B68" t="n">
+        <v>12</v>
+      </c>
+      <c r="C68" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D68" t="n">
+        <v>64</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2972.04</v>
+      </c>
+      <c r="F68" t="n">
+        <v>6020.07</v>
+      </c>
+      <c r="G68" t="n">
+        <v>7537.78</v>
+      </c>
+      <c r="H68" t="n">
+        <v>20191.3</v>
+      </c>
+      <c r="I68" t="n">
+        <v>74948.22</v>
+      </c>
+      <c r="J68" t="n">
+        <v>244708.85</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1</v>
+      </c>
+      <c r="B69" t="n">
+        <v>12</v>
+      </c>
+      <c r="C69" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D69" t="n">
+        <v>96</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2373.6</v>
+      </c>
+      <c r="F69" t="n">
+        <v>6984.34</v>
+      </c>
+      <c r="G69" t="n">
+        <v>11073.59</v>
+      </c>
+      <c r="H69" t="n">
+        <v>28423.92</v>
+      </c>
+      <c r="I69" t="n">
+        <v>122586.25</v>
+      </c>
+      <c r="J69" t="n">
+        <v>625782.87</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1</v>
+      </c>
+      <c r="B70" t="n">
+        <v>12</v>
+      </c>
+      <c r="C70" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D70" t="n">
+        <v>128</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2778.2</v>
+      </c>
+      <c r="F70" t="n">
+        <v>7735.82</v>
+      </c>
+      <c r="G70" t="n">
+        <v>11726.39</v>
+      </c>
+      <c r="H70" t="n">
+        <v>31275.85</v>
+      </c>
+      <c r="I70" t="n">
+        <v>126683.89</v>
+      </c>
+      <c r="J70" t="n">
+        <v>632512.99</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1</v>
+      </c>
+      <c r="B71" t="n">
+        <v>12</v>
+      </c>
+      <c r="C71" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D71" t="n">
+        <v>64</v>
+      </c>
+      <c r="E71" t="n">
+        <v>3359.45</v>
+      </c>
+      <c r="F71" t="n">
+        <v>8502.34</v>
+      </c>
+      <c r="G71" t="n">
+        <v>13610.45</v>
+      </c>
+      <c r="H71" t="n">
+        <v>39162.15</v>
+      </c>
+      <c r="I71" t="n">
+        <v>303725.16</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1090351.78</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1</v>
+      </c>
+      <c r="B72" t="n">
+        <v>12</v>
+      </c>
+      <c r="C72" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D72" t="n">
+        <v>96</v>
+      </c>
+      <c r="E72" t="n">
+        <v>5052</v>
+      </c>
+      <c r="F72" t="n">
+        <v>13508.98</v>
+      </c>
+      <c r="G72" t="n">
+        <v>18612.3</v>
+      </c>
+      <c r="H72" t="n">
+        <v>50824.24</v>
+      </c>
+      <c r="I72" t="n">
+        <v>494616.31</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2590110.42</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1</v>
+      </c>
+      <c r="B73" t="n">
+        <v>12</v>
+      </c>
+      <c r="C73" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D73" t="n">
+        <v>128</v>
+      </c>
+      <c r="E73" t="n">
+        <v>10594.12</v>
+      </c>
+      <c r="F73" t="n">
+        <v>21621.36</v>
+      </c>
+      <c r="G73" t="n">
+        <v>17268.7</v>
+      </c>
+      <c r="H73" t="n">
+        <v>52540.42</v>
+      </c>
+      <c r="I73" t="n">
+        <v>511285.37</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2635571.33</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1</v>
+      </c>
+      <c r="B74" t="n">
+        <v>16</v>
+      </c>
+      <c r="C74" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D74" t="n">
+        <v>64</v>
+      </c>
+      <c r="E74" t="n">
+        <v>395.03</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1402.56</v>
+      </c>
+      <c r="G74" t="n">
+        <v>651.35</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1556.45</v>
+      </c>
+      <c r="I74" t="n">
+        <v>825.5700000000001</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1972.6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1</v>
+      </c>
+      <c r="B75" t="n">
+        <v>16</v>
+      </c>
+      <c r="C75" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D75" t="n">
+        <v>96</v>
+      </c>
+      <c r="E75" t="n">
+        <v>413.43</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2999.91</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1311.85</v>
+      </c>
+      <c r="H75" t="n">
+        <v>4112.12</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1324.54</v>
+      </c>
+      <c r="J75" t="n">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1</v>
+      </c>
+      <c r="B76" t="n">
+        <v>16</v>
+      </c>
+      <c r="C76" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D76" t="n">
+        <v>128</v>
+      </c>
+      <c r="E76" t="n">
+        <v>495.87</v>
+      </c>
+      <c r="F76" t="n">
+        <v>3337.23</v>
+      </c>
+      <c r="G76" t="n">
+        <v>833.59</v>
+      </c>
+      <c r="H76" t="n">
+        <v>2226.52</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1128.33</v>
+      </c>
+      <c r="J76" t="n">
+        <v>3600.8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1</v>
+      </c>
+      <c r="B77" t="n">
+        <v>16</v>
+      </c>
+      <c r="C77" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D77" t="n">
+        <v>64</v>
+      </c>
+      <c r="E77" t="n">
+        <v>491.15</v>
+      </c>
+      <c r="F77" t="n">
+        <v>826.14</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1615.92</v>
+      </c>
+      <c r="H77" t="n">
+        <v>3745.71</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2789.68</v>
+      </c>
+      <c r="J77" t="n">
+        <v>6295.58</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1</v>
+      </c>
+      <c r="B78" t="n">
+        <v>16</v>
+      </c>
+      <c r="C78" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D78" t="n">
+        <v>96</v>
+      </c>
+      <c r="E78" t="n">
+        <v>540.14</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1475.76</v>
+      </c>
+      <c r="G78" t="n">
+        <v>2163.52</v>
+      </c>
+      <c r="H78" t="n">
+        <v>3955.53</v>
+      </c>
+      <c r="I78" t="n">
+        <v>3528.56</v>
+      </c>
+      <c r="J78" t="n">
+        <v>11543.73</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1</v>
+      </c>
+      <c r="B79" t="n">
+        <v>16</v>
+      </c>
+      <c r="C79" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D79" t="n">
+        <v>128</v>
+      </c>
+      <c r="E79" t="n">
+        <v>708.46</v>
+      </c>
+      <c r="F79" t="n">
+        <v>3170.05</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1657.31</v>
+      </c>
+      <c r="H79" t="n">
+        <v>4154.44</v>
+      </c>
+      <c r="I79" t="n">
+        <v>3214.77</v>
+      </c>
+      <c r="J79" t="n">
+        <v>11421.83</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1</v>
+      </c>
+      <c r="B80" t="n">
+        <v>16</v>
+      </c>
+      <c r="C80" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D80" t="n">
+        <v>64</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1056.78</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2327.41</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1908.54</v>
+      </c>
+      <c r="H80" t="n">
+        <v>6456.15</v>
+      </c>
+      <c r="I80" t="n">
+        <v>7523.51</v>
+      </c>
+      <c r="J80" t="n">
+        <v>19669.89</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1</v>
+      </c>
+      <c r="B81" t="n">
+        <v>16</v>
+      </c>
+      <c r="C81" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D81" t="n">
+        <v>96</v>
+      </c>
+      <c r="E81" t="n">
+        <v>985.7</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2767.62</v>
+      </c>
+      <c r="G81" t="n">
+        <v>3203.42</v>
+      </c>
+      <c r="H81" t="n">
+        <v>8716.15</v>
+      </c>
+      <c r="I81" t="n">
+        <v>11107.63</v>
+      </c>
+      <c r="J81" t="n">
+        <v>45346.51</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1</v>
+      </c>
+      <c r="B82" t="n">
+        <v>16</v>
+      </c>
+      <c r="C82" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D82" t="n">
+        <v>128</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1310.73</v>
+      </c>
+      <c r="F82" t="n">
+        <v>3817.83</v>
+      </c>
+      <c r="G82" t="n">
+        <v>3512.12</v>
+      </c>
+      <c r="H82" t="n">
+        <v>10197.14</v>
+      </c>
+      <c r="I82" t="n">
+        <v>10998.65</v>
+      </c>
+      <c r="J82" t="n">
+        <v>45012.39</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1</v>
+      </c>
+      <c r="B83" t="n">
+        <v>16</v>
+      </c>
+      <c r="C83" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D83" t="n">
+        <v>64</v>
+      </c>
+      <c r="E83" t="n">
+        <v>2024.2</v>
+      </c>
+      <c r="F83" t="n">
+        <v>4333.85</v>
+      </c>
+      <c r="G83" t="n">
+        <v>5120.32</v>
+      </c>
+      <c r="H83" t="n">
+        <v>11837.2</v>
+      </c>
+      <c r="I83" t="n">
+        <v>25388.84</v>
+      </c>
+      <c r="J83" t="n">
+        <v>79771.67999999999</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1</v>
+      </c>
+      <c r="B84" t="n">
+        <v>16</v>
+      </c>
+      <c r="C84" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D84" t="n">
+        <v>96</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2468.23</v>
+      </c>
+      <c r="F84" t="n">
+        <v>4617.37</v>
+      </c>
+      <c r="G84" t="n">
+        <v>4604.01</v>
+      </c>
+      <c r="H84" t="n">
+        <v>14022.79</v>
+      </c>
+      <c r="I84" t="n">
+        <v>40612.61</v>
+      </c>
+      <c r="J84" t="n">
+        <v>193334.28</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1</v>
+      </c>
+      <c r="B85" t="n">
+        <v>16</v>
+      </c>
+      <c r="C85" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D85" t="n">
+        <v>128</v>
+      </c>
+      <c r="E85" t="n">
+        <v>3210.79</v>
+      </c>
+      <c r="F85" t="n">
+        <v>6816.27</v>
+      </c>
+      <c r="G85" t="n">
+        <v>4928.12</v>
+      </c>
+      <c r="H85" t="n">
+        <v>15089.05</v>
+      </c>
+      <c r="I85" t="n">
+        <v>40321.8</v>
+      </c>
+      <c r="J85" t="n">
+        <v>190656.77</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1</v>
+      </c>
+      <c r="B86" t="n">
+        <v>16</v>
+      </c>
+      <c r="C86" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D86" t="n">
+        <v>64</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2213.55</v>
+      </c>
+      <c r="F86" t="n">
+        <v>5415.95</v>
+      </c>
+      <c r="G86" t="n">
+        <v>7185.6</v>
+      </c>
+      <c r="H86" t="n">
+        <v>20741.97</v>
+      </c>
+      <c r="I86" t="n">
+        <v>100961.21</v>
+      </c>
+      <c r="J86" t="n">
+        <v>334040.2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1</v>
+      </c>
+      <c r="B87" t="n">
+        <v>16</v>
+      </c>
+      <c r="C87" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D87" t="n">
+        <v>96</v>
+      </c>
+      <c r="E87" t="n">
+        <v>3095.83</v>
+      </c>
+      <c r="F87" t="n">
+        <v>7726.97</v>
+      </c>
+      <c r="G87" t="n">
+        <v>8973.1</v>
+      </c>
+      <c r="H87" t="n">
+        <v>26712.24</v>
+      </c>
+      <c r="I87" t="n">
+        <v>165426.01</v>
+      </c>
+      <c r="J87" t="n">
+        <v>851994.77</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1</v>
+      </c>
+      <c r="B88" t="n">
+        <v>16</v>
+      </c>
+      <c r="C88" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D88" t="n">
+        <v>128</v>
+      </c>
+      <c r="E88" t="n">
+        <v>3515.77</v>
+      </c>
+      <c r="F88" t="n">
+        <v>9339.32</v>
+      </c>
+      <c r="G88" t="n">
+        <v>10718.11</v>
+      </c>
+      <c r="H88" t="n">
+        <v>29698.14</v>
+      </c>
+      <c r="I88" t="n">
+        <v>165772.47</v>
+      </c>
+      <c r="J88" t="n">
+        <v>848582.96</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1</v>
+      </c>
+      <c r="B89" t="n">
+        <v>16</v>
+      </c>
+      <c r="C89" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D89" t="n">
+        <v>64</v>
+      </c>
+      <c r="E89" t="n">
+        <v>6177.09</v>
+      </c>
+      <c r="F89" t="n">
+        <v>12194.95</v>
+      </c>
+      <c r="G89" t="n">
+        <v>14188.37</v>
+      </c>
+      <c r="H89" t="n">
+        <v>40927.73</v>
+      </c>
+      <c r="I89" t="n">
+        <v>409891.17</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1485814.5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1</v>
+      </c>
+      <c r="B90" t="n">
+        <v>16</v>
+      </c>
+      <c r="C90" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D90" t="n">
+        <v>96</v>
+      </c>
+      <c r="E90" t="n">
+        <v>5900.92</v>
+      </c>
+      <c r="F90" t="n">
+        <v>15741.57</v>
+      </c>
+      <c r="G90" t="n">
+        <v>17919.47</v>
+      </c>
+      <c r="H90" t="n">
+        <v>52674.13</v>
+      </c>
+      <c r="I90" t="n">
+        <v>663660.33</v>
+      </c>
+      <c r="J90" t="n">
+        <v>3490785.43</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1</v>
+      </c>
+      <c r="B91" t="n">
+        <v>16</v>
+      </c>
+      <c r="C91" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D91" t="n">
+        <v>128</v>
+      </c>
+      <c r="E91" t="n">
+        <v>7163.02</v>
+      </c>
+      <c r="F91" t="n">
+        <v>19147.96</v>
+      </c>
+      <c r="G91" t="n">
+        <v>18758.81</v>
+      </c>
+      <c r="H91" t="n">
+        <v>57014.16</v>
+      </c>
+      <c r="I91" t="n">
+        <v>672400.27</v>
+      </c>
+      <c r="J91" t="n">
+        <v>3463553.68</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1</v>
+      </c>
+      <c r="B92" t="n">
+        <v>32</v>
+      </c>
+      <c r="C92" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D92" t="n">
+        <v>64</v>
+      </c>
+      <c r="E92" t="n">
+        <v>469.68</v>
+      </c>
+      <c r="F92" t="n">
+        <v>767.53</v>
+      </c>
+      <c r="G92" t="n">
+        <v>631.63</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1647.91</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1259.67</v>
+      </c>
+      <c r="J92" t="n">
+        <v>3108.98</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1</v>
+      </c>
+      <c r="B93" t="n">
+        <v>32</v>
+      </c>
+      <c r="C93" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D93" t="n">
+        <v>96</v>
+      </c>
+      <c r="E93" t="n">
+        <v>488.73</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1267.62</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1423.04</v>
+      </c>
+      <c r="H93" t="n">
+        <v>3794.94</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1919.27</v>
+      </c>
+      <c r="J93" t="n">
+        <v>6307.7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1</v>
+      </c>
+      <c r="B94" t="n">
+        <v>32</v>
+      </c>
+      <c r="C94" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D94" t="n">
+        <v>128</v>
+      </c>
+      <c r="E94" t="n">
+        <v>937.33</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2947.88</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1607.48</v>
+      </c>
+      <c r="H94" t="n">
+        <v>3539.34</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2191.23</v>
+      </c>
+      <c r="J94" t="n">
+        <v>6625.91</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1</v>
+      </c>
+      <c r="B95" t="n">
+        <v>32</v>
+      </c>
+      <c r="C95" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D95" t="n">
+        <v>64</v>
+      </c>
+      <c r="E95" t="n">
+        <v>588.91</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2007.72</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1065.2</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2848.81</v>
+      </c>
+      <c r="I95" t="n">
+        <v>3851.33</v>
+      </c>
+      <c r="J95" t="n">
+        <v>10321.34</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1</v>
+      </c>
+      <c r="B96" t="n">
+        <v>32</v>
+      </c>
+      <c r="C96" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D96" t="n">
+        <v>96</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1436.32</v>
+      </c>
+      <c r="F96" t="n">
+        <v>3923.46</v>
+      </c>
+      <c r="G96" t="n">
+        <v>3146.75</v>
+      </c>
+      <c r="H96" t="n">
+        <v>7033.73</v>
+      </c>
+      <c r="I96" t="n">
+        <v>6445.52</v>
+      </c>
+      <c r="J96" t="n">
+        <v>22996.63</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1</v>
+      </c>
+      <c r="B97" t="n">
+        <v>32</v>
+      </c>
+      <c r="C97" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D97" t="n">
+        <v>128</v>
+      </c>
+      <c r="E97" t="n">
+        <v>900.6799999999999</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2344.77</v>
+      </c>
+      <c r="G97" t="n">
+        <v>2124.62</v>
+      </c>
+      <c r="H97" t="n">
+        <v>5803.22</v>
+      </c>
+      <c r="I97" t="n">
+        <v>5692.42</v>
+      </c>
+      <c r="J97" t="n">
+        <v>22163.35</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1</v>
+      </c>
+      <c r="B98" t="n">
+        <v>32</v>
+      </c>
+      <c r="C98" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D98" t="n">
+        <v>64</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1238.05</v>
+      </c>
+      <c r="F98" t="n">
+        <v>3895.43</v>
+      </c>
+      <c r="G98" t="n">
+        <v>2562.22</v>
+      </c>
+      <c r="H98" t="n">
+        <v>5851.07</v>
+      </c>
+      <c r="I98" t="n">
+        <v>12946.45</v>
+      </c>
+      <c r="J98" t="n">
+        <v>38444.52</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1</v>
+      </c>
+      <c r="B99" t="n">
+        <v>32</v>
+      </c>
+      <c r="C99" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D99" t="n">
+        <v>96</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2384.5</v>
+      </c>
+      <c r="F99" t="n">
+        <v>5811.38</v>
+      </c>
+      <c r="G99" t="n">
+        <v>3295.5</v>
+      </c>
+      <c r="H99" t="n">
+        <v>10134.53</v>
+      </c>
+      <c r="I99" t="n">
+        <v>20866.56</v>
+      </c>
+      <c r="J99" t="n">
+        <v>90422.89</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1</v>
+      </c>
+      <c r="B100" t="n">
+        <v>32</v>
+      </c>
+      <c r="C100" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D100" t="n">
+        <v>128</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2109.29</v>
+      </c>
+      <c r="F100" t="n">
+        <v>5163.48</v>
+      </c>
+      <c r="G100" t="n">
+        <v>4099.15</v>
+      </c>
+      <c r="H100" t="n">
+        <v>11394.02</v>
+      </c>
+      <c r="I100" t="n">
+        <v>20390.2</v>
+      </c>
+      <c r="J100" t="n">
+        <v>90210.24000000001</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1</v>
+      </c>
+      <c r="B101" t="n">
+        <v>32</v>
+      </c>
+      <c r="C101" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D101" t="n">
+        <v>64</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1615.54</v>
+      </c>
+      <c r="F101" t="n">
+        <v>4065.6</v>
+      </c>
+      <c r="G101" t="n">
+        <v>4218.84</v>
+      </c>
+      <c r="H101" t="n">
+        <v>11914.96</v>
+      </c>
+      <c r="I101" t="n">
+        <v>49264.21</v>
+      </c>
+      <c r="J101" t="n">
+        <v>158822.2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1</v>
+      </c>
+      <c r="B102" t="n">
+        <v>32</v>
+      </c>
+      <c r="C102" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D102" t="n">
+        <v>96</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2836.67</v>
+      </c>
+      <c r="F102" t="n">
+        <v>7663.95</v>
+      </c>
+      <c r="G102" t="n">
+        <v>6247.77</v>
+      </c>
+      <c r="H102" t="n">
+        <v>20521.36</v>
+      </c>
+      <c r="I102" t="n">
+        <v>81336.75</v>
+      </c>
+      <c r="J102" t="n">
+        <v>388142.45</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1</v>
+      </c>
+      <c r="B103" t="n">
+        <v>32</v>
+      </c>
+      <c r="C103" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D103" t="n">
+        <v>128</v>
+      </c>
+      <c r="E103" t="n">
+        <v>3389.43</v>
+      </c>
+      <c r="F103" t="n">
+        <v>9843.190000000001</v>
+      </c>
+      <c r="G103" t="n">
+        <v>8503.35</v>
+      </c>
+      <c r="H103" t="n">
+        <v>22874.81</v>
+      </c>
+      <c r="I103" t="n">
+        <v>80958.78</v>
+      </c>
+      <c r="J103" t="n">
+        <v>383180.75</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1</v>
+      </c>
+      <c r="B104" t="n">
+        <v>32</v>
+      </c>
+      <c r="C104" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D104" t="n">
+        <v>64</v>
+      </c>
+      <c r="E104" t="n">
+        <v>3946.5</v>
+      </c>
+      <c r="F104" t="n">
+        <v>10004</v>
+      </c>
+      <c r="G104" t="n">
+        <v>8111.71</v>
+      </c>
+      <c r="H104" t="n">
+        <v>23111.78</v>
+      </c>
+      <c r="I104" t="n">
+        <v>203827.03</v>
+      </c>
+      <c r="J104" t="n">
+        <v>682215.97</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1</v>
+      </c>
+      <c r="B105" t="n">
+        <v>32</v>
+      </c>
+      <c r="C105" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D105" t="n">
+        <v>96</v>
+      </c>
+      <c r="E105" t="n">
+        <v>5309.76</v>
+      </c>
+      <c r="F105" t="n">
+        <v>14632.24</v>
+      </c>
+      <c r="G105" t="n">
+        <v>12575.95</v>
+      </c>
+      <c r="H105" t="n">
+        <v>40878.2</v>
+      </c>
+      <c r="I105" t="n">
+        <v>328461.92</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1727908.38</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1</v>
+      </c>
+      <c r="B106" t="n">
+        <v>32</v>
+      </c>
+      <c r="C106" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D106" t="n">
+        <v>128</v>
+      </c>
+      <c r="E106" t="n">
+        <v>6932.65</v>
+      </c>
+      <c r="F106" t="n">
+        <v>19054.99</v>
+      </c>
+      <c r="G106" t="n">
+        <v>14018.42</v>
+      </c>
+      <c r="H106" t="n">
+        <v>45579.83</v>
+      </c>
+      <c r="I106" t="n">
+        <v>332646.13</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1728481.26</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1</v>
+      </c>
+      <c r="B107" t="n">
+        <v>32</v>
+      </c>
+      <c r="C107" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D107" t="n">
+        <v>64</v>
+      </c>
+      <c r="E107" t="n">
+        <v>6375.24</v>
+      </c>
+      <c r="F107" t="n">
+        <v>15776.03</v>
+      </c>
+      <c r="G107" t="n">
+        <v>15247.21</v>
+      </c>
+      <c r="H107" t="n">
+        <v>43499.18</v>
+      </c>
+      <c r="I107" t="n">
+        <v>823961.15</v>
+      </c>
+      <c r="J107" t="n">
+        <v>3023698.68</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1</v>
+      </c>
+      <c r="B108" t="n">
+        <v>32</v>
+      </c>
+      <c r="C108" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D108" t="n">
+        <v>96</v>
+      </c>
+      <c r="E108" t="n">
+        <v>9338.07</v>
+      </c>
+      <c r="F108" t="n">
+        <v>27986.12</v>
+      </c>
+      <c r="G108" t="n">
+        <v>27717.09</v>
+      </c>
+      <c r="H108" t="n">
+        <v>91230.13</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1332352.9</v>
+      </c>
+      <c r="J108" t="n">
+        <v>7032663.19</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1</v>
+      </c>
+      <c r="B109" t="n">
+        <v>32</v>
+      </c>
+      <c r="C109" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D109" t="n">
+        <v>128</v>
+      </c>
+      <c r="E109" t="n">
+        <v>13761.23</v>
+      </c>
+      <c r="F109" t="n">
+        <v>34810.1</v>
+      </c>
+      <c r="G109" t="n">
+        <v>29419</v>
+      </c>
+      <c r="H109" t="n">
+        <v>99101.53999999999</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1359167.54</v>
+      </c>
+      <c r="J109" t="n">
+        <v>6970277.24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>materialized_forward_us</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>materialized_backward_us</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>non-materialized_forward_us</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>non-materialized_backward_us</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>left-product_forward_us</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>left-product_backward_us</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D2" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2" t="n">
+        <v>423.05</v>
+      </c>
+      <c r="F2" t="n">
+        <v>755.3099999999999</v>
+      </c>
+      <c r="G2" t="n">
+        <v>579.0700000000001</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1360.81</v>
+      </c>
+      <c r="I2" t="n">
+        <v>536.6900000000001</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1509.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D3" t="n">
+        <v>64</v>
+      </c>
+      <c r="E3" t="n">
+        <v>369.92</v>
+      </c>
+      <c r="F3" t="n">
+        <v>781.91</v>
+      </c>
+      <c r="G3" t="n">
+        <v>945.6799999999999</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2651.28</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1023.94</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2156.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D4" t="n">
+        <v>64</v>
+      </c>
+      <c r="E4" t="n">
+        <v>510.97</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1040.86</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1679.94</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4722.72</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1604.97</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3654.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D5" t="n">
+        <v>64</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1023.69</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2015.46</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5382.45</v>
+      </c>
+      <c r="H5" t="n">
+        <v>13350.14</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5591.3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11276.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D6" t="n">
+        <v>64</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1471.58</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3427.42</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6327.3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>18697.12</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15137.31</v>
+      </c>
+      <c r="J6" t="n">
+        <v>36911.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D7" t="n">
+        <v>64</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3542.63</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6711.47</v>
+      </c>
+      <c r="G7" t="n">
+        <v>13280.39</v>
+      </c>
+      <c r="H7" t="n">
+        <v>38140.03</v>
+      </c>
+      <c r="I7" t="n">
+        <v>51574.38</v>
+      </c>
+      <c r="J7" t="n">
+        <v>152341.51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D8" t="n">
+        <v>64</v>
+      </c>
+      <c r="E8" t="n">
+        <v>352.14</v>
+      </c>
+      <c r="F8" t="n">
+        <v>791.64</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1000.19</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3060.78</v>
+      </c>
+      <c r="I8" t="n">
+        <v>874.05</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1354.54</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D9" t="n">
+        <v>64</v>
+      </c>
+      <c r="E9" t="n">
+        <v>399.05</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2149.34</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1627.72</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3378.63</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1015.51</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2683.41</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D10" t="n">
+        <v>64</v>
+      </c>
+      <c r="E10" t="n">
+        <v>522.24</v>
+      </c>
+      <c r="F10" t="n">
+        <v>889.52</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2268.81</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5222.33</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4493.83</v>
+      </c>
+      <c r="J10" t="n">
+        <v>7877.93</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D11" t="n">
+        <v>64</v>
+      </c>
+      <c r="E11" t="n">
+        <v>879.86</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1608.19</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5287.3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>11465.01</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7335.79</v>
+      </c>
+      <c r="J11" t="n">
+        <v>17998.48</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D12" t="n">
+        <v>64</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2282.18</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3811.91</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6869.75</v>
+      </c>
+      <c r="H12" t="n">
+        <v>19664.03</v>
+      </c>
+      <c r="I12" t="n">
+        <v>28860.25</v>
+      </c>
+      <c r="J12" t="n">
+        <v>74065.35000000001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D13" t="n">
+        <v>64</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2961.5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6532.68</v>
+      </c>
+      <c r="G13" t="n">
+        <v>12891.12</v>
+      </c>
+      <c r="H13" t="n">
+        <v>38019.22</v>
+      </c>
+      <c r="I13" t="n">
+        <v>101772.68</v>
+      </c>
+      <c r="J13" t="n">
+        <v>302310.49</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D14" t="n">
+        <v>64</v>
+      </c>
+      <c r="E14" t="n">
+        <v>441.69</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3344.41</v>
+      </c>
+      <c r="G14" t="n">
+        <v>857.1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3390.81</v>
+      </c>
+      <c r="I14" t="n">
+        <v>615.6</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1562.07</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D15" t="n">
+        <v>64</v>
+      </c>
+      <c r="E15" t="n">
+        <v>470.22</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2579.83</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1101.27</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3028.41</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1872.81</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3988.03</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D16" t="n">
+        <v>64</v>
+      </c>
+      <c r="E16" t="n">
+        <v>734.67</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2150.9</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1856.35</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5545.6</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4084.74</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10711.71</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D17" t="n">
+        <v>64</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1268.64</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2639.31</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3833.93</v>
+      </c>
+      <c r="H17" t="n">
+        <v>10277.51</v>
+      </c>
+      <c r="I17" t="n">
+        <v>13192.63</v>
+      </c>
+      <c r="J17" t="n">
+        <v>38578.86</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D18" t="n">
+        <v>64</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2220.75</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5542.54</v>
+      </c>
+      <c r="G18" t="n">
+        <v>9214.129999999999</v>
+      </c>
+      <c r="H18" t="n">
+        <v>21136.64</v>
+      </c>
+      <c r="I18" t="n">
+        <v>50100.58</v>
+      </c>
+      <c r="J18" t="n">
+        <v>156748.52</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D19" t="n">
+        <v>64</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2937.44</v>
+      </c>
+      <c r="F19" t="n">
+        <v>6968.38</v>
+      </c>
+      <c r="G19" t="n">
+        <v>13152.35</v>
+      </c>
+      <c r="H19" t="n">
+        <v>39000.05</v>
+      </c>
+      <c r="I19" t="n">
+        <v>203124.14</v>
+      </c>
+      <c r="J19" t="n">
+        <v>657327.79</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="n">
+        <v>12</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D20" t="n">
+        <v>64</v>
+      </c>
+      <c r="E20" t="n">
+        <v>400.85</v>
+      </c>
+      <c r="F20" t="n">
+        <v>776.9299999999999</v>
+      </c>
+      <c r="G20" t="n">
+        <v>647.77</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2017.5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>738.9400000000001</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1829.18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="n">
+        <v>12</v>
+      </c>
+      <c r="C21" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D21" t="n">
+        <v>64</v>
+      </c>
+      <c r="E21" t="n">
+        <v>499.16</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1104.28</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1294.19</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4348.52</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1711.79</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4279.7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="n">
+        <v>12</v>
+      </c>
+      <c r="C22" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D22" t="n">
+        <v>64</v>
+      </c>
+      <c r="E22" t="n">
+        <v>996.89</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2535.35</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1968.62</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5379.69</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5437.22</v>
+      </c>
+      <c r="J22" t="n">
+        <v>15228.49</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="n">
+        <v>12</v>
+      </c>
+      <c r="C23" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D23" t="n">
+        <v>64</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1854.51</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3821.21</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3464.37</v>
+      </c>
+      <c r="H23" t="n">
+        <v>9954.42</v>
+      </c>
+      <c r="I23" t="n">
+        <v>18956.18</v>
+      </c>
+      <c r="J23" t="n">
+        <v>59091.75</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="n">
+        <v>12</v>
+      </c>
+      <c r="C24" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D24" t="n">
+        <v>64</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2972.04</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6020.07</v>
+      </c>
+      <c r="G24" t="n">
+        <v>7537.78</v>
+      </c>
+      <c r="H24" t="n">
+        <v>20191.3</v>
+      </c>
+      <c r="I24" t="n">
+        <v>74948.22</v>
+      </c>
+      <c r="J24" t="n">
+        <v>244708.85</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="n">
+        <v>12</v>
+      </c>
+      <c r="C25" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D25" t="n">
+        <v>64</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3359.45</v>
+      </c>
+      <c r="F25" t="n">
+        <v>8502.34</v>
+      </c>
+      <c r="G25" t="n">
+        <v>13610.45</v>
+      </c>
+      <c r="H25" t="n">
+        <v>39162.15</v>
+      </c>
+      <c r="I25" t="n">
+        <v>303725.16</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1090351.78</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="n">
+        <v>16</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D26" t="n">
+        <v>64</v>
+      </c>
+      <c r="E26" t="n">
+        <v>395.03</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1402.56</v>
+      </c>
+      <c r="G26" t="n">
+        <v>651.35</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1556.45</v>
+      </c>
+      <c r="I26" t="n">
+        <v>825.5700000000001</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1972.6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="n">
+        <v>16</v>
+      </c>
+      <c r="C27" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D27" t="n">
+        <v>64</v>
+      </c>
+      <c r="E27" t="n">
+        <v>491.15</v>
+      </c>
+      <c r="F27" t="n">
+        <v>826.14</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1615.92</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3745.71</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2789.68</v>
+      </c>
+      <c r="J27" t="n">
+        <v>6295.58</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="n">
+        <v>16</v>
+      </c>
+      <c r="C28" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D28" t="n">
+        <v>64</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1056.78</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2327.41</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1908.54</v>
+      </c>
+      <c r="H28" t="n">
+        <v>6456.15</v>
+      </c>
+      <c r="I28" t="n">
+        <v>7523.51</v>
+      </c>
+      <c r="J28" t="n">
+        <v>19669.89</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="n">
+        <v>16</v>
+      </c>
+      <c r="C29" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D29" t="n">
+        <v>64</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2024.2</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4333.85</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5120.32</v>
+      </c>
+      <c r="H29" t="n">
+        <v>11837.2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>25388.84</v>
+      </c>
+      <c r="J29" t="n">
+        <v>79771.67999999999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="n">
+        <v>16</v>
+      </c>
+      <c r="C30" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D30" t="n">
+        <v>64</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2213.55</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5415.95</v>
+      </c>
+      <c r="G30" t="n">
+        <v>7185.6</v>
+      </c>
+      <c r="H30" t="n">
+        <v>20741.97</v>
+      </c>
+      <c r="I30" t="n">
+        <v>100961.21</v>
+      </c>
+      <c r="J30" t="n">
+        <v>334040.2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="n">
+        <v>16</v>
+      </c>
+      <c r="C31" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D31" t="n">
+        <v>64</v>
+      </c>
+      <c r="E31" t="n">
+        <v>6177.09</v>
+      </c>
+      <c r="F31" t="n">
+        <v>12194.95</v>
+      </c>
+      <c r="G31" t="n">
+        <v>14188.37</v>
+      </c>
+      <c r="H31" t="n">
+        <v>40927.73</v>
+      </c>
+      <c r="I31" t="n">
+        <v>409891.17</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1485814.5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="n">
+        <v>32</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D32" t="n">
+        <v>64</v>
+      </c>
+      <c r="E32" t="n">
+        <v>469.68</v>
+      </c>
+      <c r="F32" t="n">
+        <v>767.53</v>
+      </c>
+      <c r="G32" t="n">
+        <v>631.63</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1647.91</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1259.67</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3108.98</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D33" t="n">
+        <v>64</v>
+      </c>
+      <c r="E33" t="n">
+        <v>588.91</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2007.72</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1065.2</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2848.81</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3851.33</v>
+      </c>
+      <c r="J33" t="n">
+        <v>10321.34</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D34" t="n">
+        <v>64</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1238.05</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3895.43</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2562.22</v>
+      </c>
+      <c r="H34" t="n">
+        <v>5851.07</v>
+      </c>
+      <c r="I34" t="n">
+        <v>12946.45</v>
+      </c>
+      <c r="J34" t="n">
+        <v>38444.52</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="n">
+        <v>32</v>
+      </c>
+      <c r="C35" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D35" t="n">
+        <v>64</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1615.54</v>
+      </c>
+      <c r="F35" t="n">
+        <v>4065.6</v>
+      </c>
+      <c r="G35" t="n">
+        <v>4218.84</v>
+      </c>
+      <c r="H35" t="n">
+        <v>11914.96</v>
+      </c>
+      <c r="I35" t="n">
+        <v>49264.21</v>
+      </c>
+      <c r="J35" t="n">
+        <v>158822.2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="n">
+        <v>32</v>
+      </c>
+      <c r="C36" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D36" t="n">
+        <v>64</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3946.5</v>
+      </c>
+      <c r="F36" t="n">
+        <v>10004</v>
+      </c>
+      <c r="G36" t="n">
+        <v>8111.71</v>
+      </c>
+      <c r="H36" t="n">
+        <v>23111.78</v>
+      </c>
+      <c r="I36" t="n">
+        <v>203827.03</v>
+      </c>
+      <c r="J36" t="n">
+        <v>682215.97</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="n">
+        <v>32</v>
+      </c>
+      <c r="C37" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D37" t="n">
+        <v>64</v>
+      </c>
+      <c r="E37" t="n">
+        <v>6375.24</v>
+      </c>
+      <c r="F37" t="n">
+        <v>15776.03</v>
+      </c>
+      <c r="G37" t="n">
+        <v>15247.21</v>
+      </c>
+      <c r="H37" t="n">
+        <v>43499.18</v>
+      </c>
+      <c r="I37" t="n">
+        <v>823961.15</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3023698.68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>materialized_forward_us</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>materialized_backward_us</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>non-materialized_forward_us</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>non-materialized_backward_us</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>left-product_forward_us</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>left-product_backward_us</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D2" t="n">
+        <v>96</v>
+      </c>
+      <c r="E2" t="n">
+        <v>387.48</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1258.16</v>
+      </c>
+      <c r="G2" t="n">
+        <v>820.22</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2290.4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>572.23</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1404.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D3" t="n">
+        <v>96</v>
+      </c>
+      <c r="E3" t="n">
+        <v>423.11</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2013.27</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1199.01</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3424.69</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1154.8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2543.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D4" t="n">
+        <v>96</v>
+      </c>
+      <c r="E4" t="n">
+        <v>572.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>954.74</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1798.09</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5430.52</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2927.48</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7054.29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D5" t="n">
+        <v>96</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1210.06</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3532.06</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4732.14</v>
+      </c>
+      <c r="H5" t="n">
+        <v>12874.73</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8410.700000000001</v>
+      </c>
+      <c r="J5" t="n">
+        <v>22338.07</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1399.2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3380.78</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7552.1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>22099.08</v>
+      </c>
+      <c r="I6" t="n">
+        <v>24742.81</v>
+      </c>
+      <c r="J6" t="n">
+        <v>88454.03999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D7" t="n">
+        <v>96</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4343.89</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7749.36</v>
+      </c>
+      <c r="G7" t="n">
+        <v>13164.22</v>
+      </c>
+      <c r="H7" t="n">
+        <v>41697.72</v>
+      </c>
+      <c r="I7" t="n">
+        <v>83453.92999999999</v>
+      </c>
+      <c r="J7" t="n">
+        <v>358293.33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D8" t="n">
+        <v>96</v>
+      </c>
+      <c r="E8" t="n">
+        <v>388.51</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1202.3</v>
+      </c>
+      <c r="G8" t="n">
+        <v>765.01</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3573.93</v>
+      </c>
+      <c r="I8" t="n">
+        <v>727.8200000000001</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1481.45</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D9" t="n">
+        <v>96</v>
+      </c>
+      <c r="E9" t="n">
+        <v>387.11</v>
+      </c>
+      <c r="F9" t="n">
+        <v>908.79</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1418.8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7584.95</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1651.9</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3785.89</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D10" t="n">
+        <v>96</v>
+      </c>
+      <c r="E10" t="n">
+        <v>764.9299999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1476.16</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2132.52</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5875.63</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3855.62</v>
+      </c>
+      <c r="J10" t="n">
+        <v>10928.82</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D11" t="n">
+        <v>96</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1350.82</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3001.19</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4108.92</v>
+      </c>
+      <c r="H11" t="n">
+        <v>11732.24</v>
+      </c>
+      <c r="I11" t="n">
+        <v>12409.61</v>
+      </c>
+      <c r="J11" t="n">
+        <v>42743.14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D12" t="n">
+        <v>96</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2426.33</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5433.01</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6945.8</v>
+      </c>
+      <c r="H12" t="n">
+        <v>21715.06</v>
+      </c>
+      <c r="I12" t="n">
+        <v>43110.14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>182930.06</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D13" t="n">
+        <v>96</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3299.87</v>
+      </c>
+      <c r="F13" t="n">
+        <v>7395.71</v>
+      </c>
+      <c r="G13" t="n">
+        <v>14458.77</v>
+      </c>
+      <c r="H13" t="n">
+        <v>43949.42</v>
+      </c>
+      <c r="I13" t="n">
+        <v>167975.78</v>
+      </c>
+      <c r="J13" t="n">
+        <v>723832.12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D14" t="n">
+        <v>96</v>
+      </c>
+      <c r="E14" t="n">
+        <v>425.31</v>
+      </c>
+      <c r="F14" t="n">
+        <v>761.33</v>
+      </c>
+      <c r="G14" t="n">
+        <v>711.03</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2217.91</v>
+      </c>
+      <c r="I14" t="n">
+        <v>824.9400000000001</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2412.76</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D15" t="n">
+        <v>96</v>
+      </c>
+      <c r="E15" t="n">
+        <v>486.83</v>
+      </c>
+      <c r="F15" t="n">
+        <v>918.64</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1312.93</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3646.38</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2543.91</v>
+      </c>
+      <c r="J15" t="n">
+        <v>6689.91</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D16" t="n">
+        <v>96</v>
+      </c>
+      <c r="E16" t="n">
+        <v>802.6799999999999</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1864.4</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2462.57</v>
+      </c>
+      <c r="H16" t="n">
+        <v>6464.57</v>
+      </c>
+      <c r="I16" t="n">
+        <v>8729.540000000001</v>
+      </c>
+      <c r="J16" t="n">
+        <v>25427.07</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D17" t="n">
+        <v>96</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1154.24</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4368.95</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6345.68</v>
+      </c>
+      <c r="H17" t="n">
+        <v>13703.4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>22139.54</v>
+      </c>
+      <c r="J17" t="n">
+        <v>92336.92</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D18" t="n">
+        <v>96</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2059.2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4988.72</v>
+      </c>
+      <c r="G18" t="n">
+        <v>8227.049999999999</v>
+      </c>
+      <c r="H18" t="n">
+        <v>24296.36</v>
+      </c>
+      <c r="I18" t="n">
+        <v>82781.8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>380012.55</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D19" t="n">
+        <v>96</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4667.57</v>
+      </c>
+      <c r="F19" t="n">
+        <v>10754.21</v>
+      </c>
+      <c r="G19" t="n">
+        <v>15520.04</v>
+      </c>
+      <c r="H19" t="n">
+        <v>47868.25</v>
+      </c>
+      <c r="I19" t="n">
+        <v>332142.95</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1536831.92</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="n">
+        <v>12</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D20" t="n">
+        <v>96</v>
+      </c>
+      <c r="E20" t="n">
+        <v>605.54</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1090.2</v>
+      </c>
+      <c r="G20" t="n">
+        <v>888.9</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2872.7</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1062.55</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2839.61</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="n">
+        <v>12</v>
+      </c>
+      <c r="C21" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D21" t="n">
+        <v>96</v>
+      </c>
+      <c r="E21" t="n">
+        <v>495.11</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1002.03</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1183.78</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3455.69</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2597.45</v>
+      </c>
+      <c r="J21" t="n">
+        <v>8967.629999999999</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="n">
+        <v>12</v>
+      </c>
+      <c r="C22" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D22" t="n">
+        <v>96</v>
+      </c>
+      <c r="E22" t="n">
+        <v>954.61</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2914</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2519.25</v>
+      </c>
+      <c r="H22" t="n">
+        <v>7779.9</v>
+      </c>
+      <c r="I22" t="n">
+        <v>8591.700000000001</v>
+      </c>
+      <c r="J22" t="n">
+        <v>33909.12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="n">
+        <v>12</v>
+      </c>
+      <c r="C23" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D23" t="n">
+        <v>96</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1254.02</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3197.43</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4032.67</v>
+      </c>
+      <c r="H23" t="n">
+        <v>12435.05</v>
+      </c>
+      <c r="I23" t="n">
+        <v>30716.77</v>
+      </c>
+      <c r="J23" t="n">
+        <v>143004.31</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="n">
+        <v>12</v>
+      </c>
+      <c r="C24" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D24" t="n">
+        <v>96</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2373.6</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6984.34</v>
+      </c>
+      <c r="G24" t="n">
+        <v>11073.59</v>
+      </c>
+      <c r="H24" t="n">
+        <v>28423.92</v>
+      </c>
+      <c r="I24" t="n">
+        <v>122586.25</v>
+      </c>
+      <c r="J24" t="n">
+        <v>625782.87</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="n">
+        <v>12</v>
+      </c>
+      <c r="C25" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D25" t="n">
+        <v>96</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5052</v>
+      </c>
+      <c r="F25" t="n">
+        <v>13508.98</v>
+      </c>
+      <c r="G25" t="n">
+        <v>18612.3</v>
+      </c>
+      <c r="H25" t="n">
+        <v>50824.24</v>
+      </c>
+      <c r="I25" t="n">
+        <v>494616.31</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2590110.42</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="n">
+        <v>16</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D26" t="n">
+        <v>96</v>
+      </c>
+      <c r="E26" t="n">
+        <v>413.43</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2999.91</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1311.85</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4112.12</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1324.54</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="n">
+        <v>16</v>
+      </c>
+      <c r="C27" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D27" t="n">
+        <v>96</v>
+      </c>
+      <c r="E27" t="n">
+        <v>540.14</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1475.76</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2163.52</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3955.53</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3528.56</v>
+      </c>
+      <c r="J27" t="n">
+        <v>11543.73</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="n">
+        <v>16</v>
+      </c>
+      <c r="C28" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D28" t="n">
+        <v>96</v>
+      </c>
+      <c r="E28" t="n">
+        <v>985.7</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2767.62</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3203.42</v>
+      </c>
+      <c r="H28" t="n">
+        <v>8716.15</v>
+      </c>
+      <c r="I28" t="n">
+        <v>11107.63</v>
+      </c>
+      <c r="J28" t="n">
+        <v>45346.51</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="n">
+        <v>16</v>
+      </c>
+      <c r="C29" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D29" t="n">
+        <v>96</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2468.23</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4617.37</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4604.01</v>
+      </c>
+      <c r="H29" t="n">
+        <v>14022.79</v>
+      </c>
+      <c r="I29" t="n">
+        <v>40612.61</v>
+      </c>
+      <c r="J29" t="n">
+        <v>193334.28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="n">
+        <v>16</v>
+      </c>
+      <c r="C30" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D30" t="n">
+        <v>96</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3095.83</v>
+      </c>
+      <c r="F30" t="n">
+        <v>7726.97</v>
+      </c>
+      <c r="G30" t="n">
+        <v>8973.1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>26712.24</v>
+      </c>
+      <c r="I30" t="n">
+        <v>165426.01</v>
+      </c>
+      <c r="J30" t="n">
+        <v>851994.77</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="n">
+        <v>16</v>
+      </c>
+      <c r="C31" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D31" t="n">
+        <v>96</v>
+      </c>
+      <c r="E31" t="n">
+        <v>5900.92</v>
+      </c>
+      <c r="F31" t="n">
+        <v>15741.57</v>
+      </c>
+      <c r="G31" t="n">
+        <v>17919.47</v>
+      </c>
+      <c r="H31" t="n">
+        <v>52674.13</v>
+      </c>
+      <c r="I31" t="n">
+        <v>663660.33</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3490785.43</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="n">
+        <v>32</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D32" t="n">
+        <v>96</v>
+      </c>
+      <c r="E32" t="n">
+        <v>488.73</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1267.62</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1423.04</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3794.94</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1919.27</v>
+      </c>
+      <c r="J32" t="n">
+        <v>6307.7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D33" t="n">
+        <v>96</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1436.32</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3923.46</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3146.75</v>
+      </c>
+      <c r="H33" t="n">
+        <v>7033.73</v>
+      </c>
+      <c r="I33" t="n">
+        <v>6445.52</v>
+      </c>
+      <c r="J33" t="n">
+        <v>22996.63</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D34" t="n">
+        <v>96</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2384.5</v>
+      </c>
+      <c r="F34" t="n">
+        <v>5811.38</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3295.5</v>
+      </c>
+      <c r="H34" t="n">
+        <v>10134.53</v>
+      </c>
+      <c r="I34" t="n">
+        <v>20866.56</v>
+      </c>
+      <c r="J34" t="n">
+        <v>90422.89</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="n">
+        <v>32</v>
+      </c>
+      <c r="C35" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D35" t="n">
+        <v>96</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2836.67</v>
+      </c>
+      <c r="F35" t="n">
+        <v>7663.95</v>
+      </c>
+      <c r="G35" t="n">
+        <v>6247.77</v>
+      </c>
+      <c r="H35" t="n">
+        <v>20521.36</v>
+      </c>
+      <c r="I35" t="n">
+        <v>81336.75</v>
+      </c>
+      <c r="J35" t="n">
+        <v>388142.45</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="n">
+        <v>32</v>
+      </c>
+      <c r="C36" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D36" t="n">
+        <v>96</v>
+      </c>
+      <c r="E36" t="n">
+        <v>5309.76</v>
+      </c>
+      <c r="F36" t="n">
+        <v>14632.24</v>
+      </c>
+      <c r="G36" t="n">
+        <v>12575.95</v>
+      </c>
+      <c r="H36" t="n">
+        <v>40878.2</v>
+      </c>
+      <c r="I36" t="n">
+        <v>328461.92</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1727908.38</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="n">
+        <v>32</v>
+      </c>
+      <c r="C37" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D37" t="n">
+        <v>96</v>
+      </c>
+      <c r="E37" t="n">
+        <v>9338.07</v>
+      </c>
+      <c r="F37" t="n">
+        <v>27986.12</v>
+      </c>
+      <c r="G37" t="n">
+        <v>27717.09</v>
+      </c>
+      <c r="H37" t="n">
+        <v>91230.13</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1332352.9</v>
+      </c>
+      <c r="J37" t="n">
+        <v>7032663.19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>materialized_forward_us</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>materialized_backward_us</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>non-materialized_forward_us</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>non-materialized_backward_us</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>left-product_forward_us</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>left-product_backward_us</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D2" t="n">
+        <v>128</v>
+      </c>
+      <c r="E2" t="n">
+        <v>407.46</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1065.87</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1803.64</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2368.84</v>
+      </c>
+      <c r="I2" t="n">
+        <v>770.74</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1287.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D3" t="n">
+        <v>128</v>
+      </c>
+      <c r="E3" t="n">
+        <v>464.77</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1350</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1615.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3349.94</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1512.86</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2509.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D4" t="n">
+        <v>128</v>
+      </c>
+      <c r="E4" t="n">
+        <v>602.14</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1340.62</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1882.55</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5595.41</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2452.63</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6225.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D5" t="n">
+        <v>128</v>
+      </c>
+      <c r="E5" t="n">
+        <v>869.97</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1710.85</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4014.69</v>
+      </c>
+      <c r="H5" t="n">
+        <v>10944.46</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8315.68</v>
+      </c>
+      <c r="J5" t="n">
+        <v>21714.07</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D6" t="n">
+        <v>128</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1450.09</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3201.62</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7739.3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>22783.43</v>
+      </c>
+      <c r="I6" t="n">
+        <v>22935.9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>88567.53</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D7" t="n">
+        <v>128</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2994.37</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6685.98</v>
+      </c>
+      <c r="G7" t="n">
+        <v>14020.09</v>
+      </c>
+      <c r="H7" t="n">
+        <v>43157.47</v>
+      </c>
+      <c r="I7" t="n">
+        <v>88426.37</v>
+      </c>
+      <c r="J7" t="n">
+        <v>356403.24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D8" t="n">
+        <v>128</v>
+      </c>
+      <c r="E8" t="n">
+        <v>366.22</v>
+      </c>
+      <c r="F8" t="n">
+        <v>932.3099999999999</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1038.37</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3394.57</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1566.32</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3357.71</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D9" t="n">
+        <v>128</v>
+      </c>
+      <c r="E9" t="n">
+        <v>441.38</v>
+      </c>
+      <c r="F9" t="n">
+        <v>809.6799999999999</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1424</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3999.83</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1404.4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3756.01</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D10" t="n">
+        <v>128</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1035.61</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3083.14</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2176.31</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6029.12</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3750.43</v>
+      </c>
+      <c r="J10" t="n">
+        <v>10561.03</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D11" t="n">
+        <v>128</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1017.57</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2569.88</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4125.13</v>
+      </c>
+      <c r="H11" t="n">
+        <v>11825.38</v>
+      </c>
+      <c r="I11" t="n">
+        <v>12292.64</v>
+      </c>
+      <c r="J11" t="n">
+        <v>42496.56</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D12" t="n">
+        <v>128</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2861.15</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6868.3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>8455.120000000001</v>
+      </c>
+      <c r="H12" t="n">
+        <v>24627.72</v>
+      </c>
+      <c r="I12" t="n">
+        <v>43000.49</v>
+      </c>
+      <c r="J12" t="n">
+        <v>184699.95</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D13" t="n">
+        <v>128</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3559.18</v>
+      </c>
+      <c r="F13" t="n">
+        <v>7720.56</v>
+      </c>
+      <c r="G13" t="n">
+        <v>15310.73</v>
+      </c>
+      <c r="H13" t="n">
+        <v>47463.01</v>
+      </c>
+      <c r="I13" t="n">
+        <v>170647.08</v>
+      </c>
+      <c r="J13" t="n">
+        <v>724669.17</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D14" t="n">
+        <v>128</v>
+      </c>
+      <c r="E14" t="n">
+        <v>449.75</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1858.18</v>
+      </c>
+      <c r="G14" t="n">
+        <v>813.1900000000001</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2116.94</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1458.99</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3393.13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D15" t="n">
+        <v>128</v>
+      </c>
+      <c r="E15" t="n">
+        <v>530.26</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1460.43</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1271.38</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5392.06</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2409.39</v>
+      </c>
+      <c r="J15" t="n">
+        <v>6441.03</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D16" t="n">
+        <v>128</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1004.92</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3227.19</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2455.3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>6923.06</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6222.37</v>
+      </c>
+      <c r="J16" t="n">
+        <v>22551.75</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D17" t="n">
+        <v>128</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1929.08</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4023.48</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3893.59</v>
+      </c>
+      <c r="H17" t="n">
+        <v>12347.56</v>
+      </c>
+      <c r="I17" t="n">
+        <v>21635.53</v>
+      </c>
+      <c r="J17" t="n">
+        <v>92131.69</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D18" t="n">
+        <v>128</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3159.04</v>
+      </c>
+      <c r="F18" t="n">
+        <v>8528.6</v>
+      </c>
+      <c r="G18" t="n">
+        <v>10054.29</v>
+      </c>
+      <c r="H18" t="n">
+        <v>26818.41</v>
+      </c>
+      <c r="I18" t="n">
+        <v>83656.92999999999</v>
+      </c>
+      <c r="J18" t="n">
+        <v>383861.25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D19" t="n">
+        <v>128</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6784.33</v>
+      </c>
+      <c r="F19" t="n">
+        <v>14848.06</v>
+      </c>
+      <c r="G19" t="n">
+        <v>18328.72</v>
+      </c>
+      <c r="H19" t="n">
+        <v>50569.25</v>
+      </c>
+      <c r="I19" t="n">
+        <v>337346.75</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1558449.79</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="n">
+        <v>12</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D20" t="n">
+        <v>128</v>
+      </c>
+      <c r="E20" t="n">
+        <v>546.26</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2662.39</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1043.23</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4052.29</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1026.25</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2742.54</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="n">
+        <v>12</v>
+      </c>
+      <c r="C21" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D21" t="n">
+        <v>128</v>
+      </c>
+      <c r="E21" t="n">
+        <v>585.47</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2020.52</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1261.8</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3595.96</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2588.69</v>
+      </c>
+      <c r="J21" t="n">
+        <v>8828.33</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="n">
+        <v>12</v>
+      </c>
+      <c r="C22" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D22" t="n">
+        <v>128</v>
+      </c>
+      <c r="E22" t="n">
+        <v>951.55</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2441.23</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3533.11</v>
+      </c>
+      <c r="H22" t="n">
+        <v>7847.6</v>
+      </c>
+      <c r="I22" t="n">
+        <v>8635.35</v>
+      </c>
+      <c r="J22" t="n">
+        <v>34130.55</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" t="n">
+        <v>12</v>
+      </c>
+      <c r="C23" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D23" t="n">
+        <v>128</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1457.39</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3892.18</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4468.42</v>
+      </c>
+      <c r="H23" t="n">
+        <v>13357.96</v>
+      </c>
+      <c r="I23" t="n">
+        <v>31155.46</v>
+      </c>
+      <c r="J23" t="n">
+        <v>143941.3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" t="n">
+        <v>12</v>
+      </c>
+      <c r="C24" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D24" t="n">
+        <v>128</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2778.2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>7735.82</v>
+      </c>
+      <c r="G24" t="n">
+        <v>11726.39</v>
+      </c>
+      <c r="H24" t="n">
+        <v>31275.85</v>
+      </c>
+      <c r="I24" t="n">
+        <v>126683.89</v>
+      </c>
+      <c r="J24" t="n">
+        <v>632512.99</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="n">
+        <v>12</v>
+      </c>
+      <c r="C25" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D25" t="n">
+        <v>128</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10594.12</v>
+      </c>
+      <c r="F25" t="n">
+        <v>21621.36</v>
+      </c>
+      <c r="G25" t="n">
+        <v>17268.7</v>
+      </c>
+      <c r="H25" t="n">
+        <v>52540.42</v>
+      </c>
+      <c r="I25" t="n">
+        <v>511285.37</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2635571.33</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" t="n">
+        <v>16</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D26" t="n">
+        <v>128</v>
+      </c>
+      <c r="E26" t="n">
+        <v>495.87</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3337.23</v>
+      </c>
+      <c r="G26" t="n">
+        <v>833.59</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2226.52</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1128.33</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3600.8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="n">
+        <v>16</v>
+      </c>
+      <c r="C27" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D27" t="n">
+        <v>128</v>
+      </c>
+      <c r="E27" t="n">
+        <v>708.46</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3170.05</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1657.31</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4154.44</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3214.77</v>
+      </c>
+      <c r="J27" t="n">
+        <v>11421.83</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="n">
+        <v>16</v>
+      </c>
+      <c r="C28" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D28" t="n">
+        <v>128</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1310.73</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3817.83</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3512.12</v>
+      </c>
+      <c r="H28" t="n">
+        <v>10197.14</v>
+      </c>
+      <c r="I28" t="n">
+        <v>10998.65</v>
+      </c>
+      <c r="J28" t="n">
+        <v>45012.39</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="n">
+        <v>16</v>
+      </c>
+      <c r="C29" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D29" t="n">
+        <v>128</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3210.79</v>
+      </c>
+      <c r="F29" t="n">
+        <v>6816.27</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4928.12</v>
+      </c>
+      <c r="H29" t="n">
+        <v>15089.05</v>
+      </c>
+      <c r="I29" t="n">
+        <v>40321.8</v>
+      </c>
+      <c r="J29" t="n">
+        <v>190656.77</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" t="n">
+        <v>16</v>
+      </c>
+      <c r="C30" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D30" t="n">
+        <v>128</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3515.77</v>
+      </c>
+      <c r="F30" t="n">
+        <v>9339.32</v>
+      </c>
+      <c r="G30" t="n">
+        <v>10718.11</v>
+      </c>
+      <c r="H30" t="n">
+        <v>29698.14</v>
+      </c>
+      <c r="I30" t="n">
+        <v>165772.47</v>
+      </c>
+      <c r="J30" t="n">
+        <v>848582.96</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" t="n">
+        <v>16</v>
+      </c>
+      <c r="C31" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D31" t="n">
+        <v>128</v>
+      </c>
+      <c r="E31" t="n">
+        <v>7163.02</v>
+      </c>
+      <c r="F31" t="n">
+        <v>19147.96</v>
+      </c>
+      <c r="G31" t="n">
+        <v>18758.81</v>
+      </c>
+      <c r="H31" t="n">
+        <v>57014.16</v>
+      </c>
+      <c r="I31" t="n">
+        <v>672400.27</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3463553.68</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="n">
+        <v>32</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D32" t="n">
+        <v>128</v>
+      </c>
+      <c r="E32" t="n">
+        <v>937.33</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2947.88</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1607.48</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3539.34</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2191.23</v>
+      </c>
+      <c r="J32" t="n">
+        <v>6625.91</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D33" t="n">
+        <v>128</v>
+      </c>
+      <c r="E33" t="n">
+        <v>900.6799999999999</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2344.77</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2124.62</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5803.22</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5692.42</v>
+      </c>
+      <c r="J33" t="n">
+        <v>22163.35</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D34" t="n">
+        <v>128</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2109.29</v>
+      </c>
+      <c r="F34" t="n">
+        <v>5163.48</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4099.15</v>
+      </c>
+      <c r="H34" t="n">
+        <v>11394.02</v>
+      </c>
+      <c r="I34" t="n">
+        <v>20390.2</v>
+      </c>
+      <c r="J34" t="n">
+        <v>90210.24000000001</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="n">
+        <v>32</v>
+      </c>
+      <c r="C35" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D35" t="n">
+        <v>128</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3389.43</v>
+      </c>
+      <c r="F35" t="n">
+        <v>9843.190000000001</v>
+      </c>
+      <c r="G35" t="n">
+        <v>8503.35</v>
+      </c>
+      <c r="H35" t="n">
+        <v>22874.81</v>
+      </c>
+      <c r="I35" t="n">
+        <v>80958.78</v>
+      </c>
+      <c r="J35" t="n">
+        <v>383180.75</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="n">
+        <v>32</v>
+      </c>
+      <c r="C36" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D36" t="n">
+        <v>128</v>
+      </c>
+      <c r="E36" t="n">
+        <v>6932.65</v>
+      </c>
+      <c r="F36" t="n">
+        <v>19054.99</v>
+      </c>
+      <c r="G36" t="n">
+        <v>14018.42</v>
+      </c>
+      <c r="H36" t="n">
+        <v>45579.83</v>
+      </c>
+      <c r="I36" t="n">
+        <v>332646.13</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1728481.26</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="n">
+        <v>32</v>
+      </c>
+      <c r="C37" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D37" t="n">
+        <v>128</v>
+      </c>
+      <c r="E37" t="n">
+        <v>13761.23</v>
+      </c>
+      <c r="F37" t="n">
+        <v>34810.1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>29419</v>
+      </c>
+      <c r="H37" t="n">
+        <v>99101.53999999999</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1359167.54</v>
+      </c>
+      <c r="J37" t="n">
+        <v>6970277.24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/log_align_ascend/time_report.xlsx
+++ b/log_align_ascend/time_report.xlsx
@@ -8,9 +8,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dim=64" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dim=96" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dim=128" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Head=2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Head=4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Head=8" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Head=12" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Head=16" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Head=32" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3955,7 +3958,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4055,28 +4058,28 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="D3" t="n">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E3" t="n">
-        <v>369.92</v>
+        <v>387.48</v>
       </c>
       <c r="F3" t="n">
-        <v>781.91</v>
+        <v>1258.16</v>
       </c>
       <c r="G3" t="n">
-        <v>945.6799999999999</v>
+        <v>820.22</v>
       </c>
       <c r="H3" t="n">
-        <v>2651.28</v>
+        <v>2290.4</v>
       </c>
       <c r="I3" t="n">
-        <v>1023.94</v>
+        <v>572.23</v>
       </c>
       <c r="J3" t="n">
-        <v>2156.69</v>
+        <v>1404.57</v>
       </c>
     </row>
     <row r="4">
@@ -4087,28 +4090,28 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>16384</v>
+        <v>4096</v>
       </c>
       <c r="D4" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E4" t="n">
-        <v>510.97</v>
+        <v>407.46</v>
       </c>
       <c r="F4" t="n">
-        <v>1040.86</v>
+        <v>1065.87</v>
       </c>
       <c r="G4" t="n">
-        <v>1679.94</v>
+        <v>1803.64</v>
       </c>
       <c r="H4" t="n">
-        <v>4722.72</v>
+        <v>2368.84</v>
       </c>
       <c r="I4" t="n">
-        <v>1604.97</v>
+        <v>770.74</v>
       </c>
       <c r="J4" t="n">
-        <v>3654.17</v>
+        <v>1287.13</v>
       </c>
     </row>
     <row r="5">
@@ -4119,28 +4122,28 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>32768</v>
+        <v>8192</v>
       </c>
       <c r="D5" t="n">
         <v>64</v>
       </c>
       <c r="E5" t="n">
-        <v>1023.69</v>
+        <v>369.92</v>
       </c>
       <c r="F5" t="n">
-        <v>2015.46</v>
+        <v>781.91</v>
       </c>
       <c r="G5" t="n">
-        <v>5382.45</v>
+        <v>945.6799999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>13350.14</v>
+        <v>2651.28</v>
       </c>
       <c r="I5" t="n">
-        <v>5591.3</v>
+        <v>1023.94</v>
       </c>
       <c r="J5" t="n">
-        <v>11276.34</v>
+        <v>2156.69</v>
       </c>
     </row>
     <row r="6">
@@ -4151,28 +4154,28 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>65536</v>
+        <v>8192</v>
       </c>
       <c r="D6" t="n">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E6" t="n">
-        <v>1471.58</v>
+        <v>423.11</v>
       </c>
       <c r="F6" t="n">
-        <v>3427.42</v>
+        <v>2013.27</v>
       </c>
       <c r="G6" t="n">
-        <v>6327.3</v>
+        <v>1199.01</v>
       </c>
       <c r="H6" t="n">
-        <v>18697.12</v>
+        <v>3424.69</v>
       </c>
       <c r="I6" t="n">
-        <v>15137.31</v>
+        <v>1154.8</v>
       </c>
       <c r="J6" t="n">
-        <v>36911.5</v>
+        <v>2543.75</v>
       </c>
     </row>
     <row r="7">
@@ -4183,28 +4186,28 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>131072</v>
+        <v>8192</v>
       </c>
       <c r="D7" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E7" t="n">
-        <v>3542.63</v>
+        <v>464.77</v>
       </c>
       <c r="F7" t="n">
-        <v>6711.47</v>
+        <v>1350</v>
       </c>
       <c r="G7" t="n">
-        <v>13280.39</v>
+        <v>1615.3</v>
       </c>
       <c r="H7" t="n">
-        <v>38140.03</v>
+        <v>3349.94</v>
       </c>
       <c r="I7" t="n">
-        <v>51574.38</v>
+        <v>1512.86</v>
       </c>
       <c r="J7" t="n">
-        <v>152341.51</v>
+        <v>2509.21</v>
       </c>
     </row>
     <row r="8">
@@ -4212,31 +4215,31 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>4096</v>
+        <v>16384</v>
       </c>
       <c r="D8" t="n">
         <v>64</v>
       </c>
       <c r="E8" t="n">
-        <v>352.14</v>
+        <v>510.97</v>
       </c>
       <c r="F8" t="n">
-        <v>791.64</v>
+        <v>1040.86</v>
       </c>
       <c r="G8" t="n">
-        <v>1000.19</v>
+        <v>1679.94</v>
       </c>
       <c r="H8" t="n">
-        <v>3060.78</v>
+        <v>4722.72</v>
       </c>
       <c r="I8" t="n">
-        <v>874.05</v>
+        <v>1604.97</v>
       </c>
       <c r="J8" t="n">
-        <v>1354.54</v>
+        <v>3654.17</v>
       </c>
     </row>
     <row r="9">
@@ -4244,31 +4247,31 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>8192</v>
+        <v>16384</v>
       </c>
       <c r="D9" t="n">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E9" t="n">
-        <v>399.05</v>
+        <v>572.5</v>
       </c>
       <c r="F9" t="n">
-        <v>2149.34</v>
+        <v>954.74</v>
       </c>
       <c r="G9" t="n">
-        <v>1627.72</v>
+        <v>1798.09</v>
       </c>
       <c r="H9" t="n">
-        <v>3378.63</v>
+        <v>5430.52</v>
       </c>
       <c r="I9" t="n">
-        <v>1015.51</v>
+        <v>2927.48</v>
       </c>
       <c r="J9" t="n">
-        <v>2683.41</v>
+        <v>7054.29</v>
       </c>
     </row>
     <row r="10">
@@ -4276,31 +4279,31 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>16384</v>
       </c>
       <c r="D10" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E10" t="n">
-        <v>522.24</v>
+        <v>602.14</v>
       </c>
       <c r="F10" t="n">
-        <v>889.52</v>
+        <v>1340.62</v>
       </c>
       <c r="G10" t="n">
-        <v>2268.81</v>
+        <v>1882.55</v>
       </c>
       <c r="H10" t="n">
-        <v>5222.33</v>
+        <v>5595.41</v>
       </c>
       <c r="I10" t="n">
-        <v>4493.83</v>
+        <v>2452.63</v>
       </c>
       <c r="J10" t="n">
-        <v>7877.93</v>
+        <v>6225.32</v>
       </c>
     </row>
     <row r="11">
@@ -4308,7 +4311,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
         <v>32768</v>
@@ -4317,22 +4320,22 @@
         <v>64</v>
       </c>
       <c r="E11" t="n">
-        <v>879.86</v>
+        <v>1023.69</v>
       </c>
       <c r="F11" t="n">
-        <v>1608.19</v>
+        <v>2015.46</v>
       </c>
       <c r="G11" t="n">
-        <v>5287.3</v>
+        <v>5382.45</v>
       </c>
       <c r="H11" t="n">
-        <v>11465.01</v>
+        <v>13350.14</v>
       </c>
       <c r="I11" t="n">
-        <v>7335.79</v>
+        <v>5591.3</v>
       </c>
       <c r="J11" t="n">
-        <v>17998.48</v>
+        <v>11276.34</v>
       </c>
     </row>
     <row r="12">
@@ -4340,31 +4343,31 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>65536</v>
+        <v>32768</v>
       </c>
       <c r="D12" t="n">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E12" t="n">
-        <v>2282.18</v>
+        <v>1210.06</v>
       </c>
       <c r="F12" t="n">
-        <v>3811.91</v>
+        <v>3532.06</v>
       </c>
       <c r="G12" t="n">
-        <v>6869.75</v>
+        <v>4732.14</v>
       </c>
       <c r="H12" t="n">
-        <v>19664.03</v>
+        <v>12874.73</v>
       </c>
       <c r="I12" t="n">
-        <v>28860.25</v>
+        <v>8410.700000000001</v>
       </c>
       <c r="J12" t="n">
-        <v>74065.35000000001</v>
+        <v>22338.07</v>
       </c>
     </row>
     <row r="13">
@@ -4372,31 +4375,31 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>131072</v>
+        <v>32768</v>
       </c>
       <c r="D13" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E13" t="n">
-        <v>2961.5</v>
+        <v>869.97</v>
       </c>
       <c r="F13" t="n">
-        <v>6532.68</v>
+        <v>1710.85</v>
       </c>
       <c r="G13" t="n">
-        <v>12891.12</v>
+        <v>4014.69</v>
       </c>
       <c r="H13" t="n">
-        <v>38019.22</v>
+        <v>10944.46</v>
       </c>
       <c r="I13" t="n">
-        <v>101772.68</v>
+        <v>8315.68</v>
       </c>
       <c r="J13" t="n">
-        <v>302310.49</v>
+        <v>21714.07</v>
       </c>
     </row>
     <row r="14">
@@ -4404,31 +4407,31 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>4096</v>
+        <v>65536</v>
       </c>
       <c r="D14" t="n">
         <v>64</v>
       </c>
       <c r="E14" t="n">
-        <v>441.69</v>
+        <v>1471.58</v>
       </c>
       <c r="F14" t="n">
-        <v>3344.41</v>
+        <v>3427.42</v>
       </c>
       <c r="G14" t="n">
-        <v>857.1</v>
+        <v>6327.3</v>
       </c>
       <c r="H14" t="n">
-        <v>3390.81</v>
+        <v>18697.12</v>
       </c>
       <c r="I14" t="n">
-        <v>615.6</v>
+        <v>15137.31</v>
       </c>
       <c r="J14" t="n">
-        <v>1562.07</v>
+        <v>36911.5</v>
       </c>
     </row>
     <row r="15">
@@ -4436,31 +4439,31 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>8192</v>
+        <v>65536</v>
       </c>
       <c r="D15" t="n">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E15" t="n">
-        <v>470.22</v>
+        <v>1399.2</v>
       </c>
       <c r="F15" t="n">
-        <v>2579.83</v>
+        <v>3380.78</v>
       </c>
       <c r="G15" t="n">
-        <v>1101.27</v>
+        <v>7552.1</v>
       </c>
       <c r="H15" t="n">
-        <v>3028.41</v>
+        <v>22099.08</v>
       </c>
       <c r="I15" t="n">
-        <v>1872.81</v>
+        <v>24742.81</v>
       </c>
       <c r="J15" t="n">
-        <v>3988.03</v>
+        <v>88454.03999999999</v>
       </c>
     </row>
     <row r="16">
@@ -4468,31 +4471,31 @@
         <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>16384</v>
+        <v>65536</v>
       </c>
       <c r="D16" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E16" t="n">
-        <v>734.67</v>
+        <v>1450.09</v>
       </c>
       <c r="F16" t="n">
-        <v>2150.9</v>
+        <v>3201.62</v>
       </c>
       <c r="G16" t="n">
-        <v>1856.35</v>
+        <v>7739.3</v>
       </c>
       <c r="H16" t="n">
-        <v>5545.6</v>
+        <v>22783.43</v>
       </c>
       <c r="I16" t="n">
-        <v>4084.74</v>
+        <v>22935.9</v>
       </c>
       <c r="J16" t="n">
-        <v>10711.71</v>
+        <v>88567.53</v>
       </c>
     </row>
     <row r="17">
@@ -4500,31 +4503,31 @@
         <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>32768</v>
+        <v>131072</v>
       </c>
       <c r="D17" t="n">
         <v>64</v>
       </c>
       <c r="E17" t="n">
-        <v>1268.64</v>
+        <v>3542.63</v>
       </c>
       <c r="F17" t="n">
-        <v>2639.31</v>
+        <v>6711.47</v>
       </c>
       <c r="G17" t="n">
-        <v>3833.93</v>
+        <v>13280.39</v>
       </c>
       <c r="H17" t="n">
-        <v>10277.51</v>
+        <v>38140.03</v>
       </c>
       <c r="I17" t="n">
-        <v>13192.63</v>
+        <v>51574.38</v>
       </c>
       <c r="J17" t="n">
-        <v>38578.86</v>
+        <v>152341.51</v>
       </c>
     </row>
     <row r="18">
@@ -4532,31 +4535,31 @@
         <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>65536</v>
+        <v>131072</v>
       </c>
       <c r="D18" t="n">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E18" t="n">
-        <v>2220.75</v>
+        <v>4343.89</v>
       </c>
       <c r="F18" t="n">
-        <v>5542.54</v>
+        <v>7749.36</v>
       </c>
       <c r="G18" t="n">
-        <v>9214.129999999999</v>
+        <v>13164.22</v>
       </c>
       <c r="H18" t="n">
-        <v>21136.64</v>
+        <v>41697.72</v>
       </c>
       <c r="I18" t="n">
-        <v>50100.58</v>
+        <v>83453.92999999999</v>
       </c>
       <c r="J18" t="n">
-        <v>156748.52</v>
+        <v>358293.33</v>
       </c>
     </row>
     <row r="19">
@@ -4564,607 +4567,31 @@
         <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
         <v>131072</v>
       </c>
       <c r="D19" t="n">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E19" t="n">
-        <v>2937.44</v>
+        <v>2994.37</v>
       </c>
       <c r="F19" t="n">
-        <v>6968.38</v>
+        <v>6685.98</v>
       </c>
       <c r="G19" t="n">
-        <v>13152.35</v>
+        <v>14020.09</v>
       </c>
       <c r="H19" t="n">
-        <v>39000.05</v>
+        <v>43157.47</v>
       </c>
       <c r="I19" t="n">
-        <v>203124.14</v>
+        <v>88426.37</v>
       </c>
       <c r="J19" t="n">
-        <v>657327.79</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" t="n">
-        <v>12</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4096</v>
-      </c>
-      <c r="D20" t="n">
-        <v>64</v>
-      </c>
-      <c r="E20" t="n">
-        <v>400.85</v>
-      </c>
-      <c r="F20" t="n">
-        <v>776.9299999999999</v>
-      </c>
-      <c r="G20" t="n">
-        <v>647.77</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2017.5</v>
-      </c>
-      <c r="I20" t="n">
-        <v>738.9400000000001</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1829.18</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="n">
-        <v>12</v>
-      </c>
-      <c r="C21" t="n">
-        <v>8192</v>
-      </c>
-      <c r="D21" t="n">
-        <v>64</v>
-      </c>
-      <c r="E21" t="n">
-        <v>499.16</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1104.28</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1294.19</v>
-      </c>
-      <c r="H21" t="n">
-        <v>4348.52</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1711.79</v>
-      </c>
-      <c r="J21" t="n">
-        <v>4279.7</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" t="n">
-        <v>12</v>
-      </c>
-      <c r="C22" t="n">
-        <v>16384</v>
-      </c>
-      <c r="D22" t="n">
-        <v>64</v>
-      </c>
-      <c r="E22" t="n">
-        <v>996.89</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2535.35</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1968.62</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5379.69</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5437.22</v>
-      </c>
-      <c r="J22" t="n">
-        <v>15228.49</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" t="n">
-        <v>12</v>
-      </c>
-      <c r="C23" t="n">
-        <v>32768</v>
-      </c>
-      <c r="D23" t="n">
-        <v>64</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1854.51</v>
-      </c>
-      <c r="F23" t="n">
-        <v>3821.21</v>
-      </c>
-      <c r="G23" t="n">
-        <v>3464.37</v>
-      </c>
-      <c r="H23" t="n">
-        <v>9954.42</v>
-      </c>
-      <c r="I23" t="n">
-        <v>18956.18</v>
-      </c>
-      <c r="J23" t="n">
-        <v>59091.75</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" t="n">
-        <v>12</v>
-      </c>
-      <c r="C24" t="n">
-        <v>65536</v>
-      </c>
-      <c r="D24" t="n">
-        <v>64</v>
-      </c>
-      <c r="E24" t="n">
-        <v>2972.04</v>
-      </c>
-      <c r="F24" t="n">
-        <v>6020.07</v>
-      </c>
-      <c r="G24" t="n">
-        <v>7537.78</v>
-      </c>
-      <c r="H24" t="n">
-        <v>20191.3</v>
-      </c>
-      <c r="I24" t="n">
-        <v>74948.22</v>
-      </c>
-      <c r="J24" t="n">
-        <v>244708.85</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>1</v>
-      </c>
-      <c r="B25" t="n">
-        <v>12</v>
-      </c>
-      <c r="C25" t="n">
-        <v>131072</v>
-      </c>
-      <c r="D25" t="n">
-        <v>64</v>
-      </c>
-      <c r="E25" t="n">
-        <v>3359.45</v>
-      </c>
-      <c r="F25" t="n">
-        <v>8502.34</v>
-      </c>
-      <c r="G25" t="n">
-        <v>13610.45</v>
-      </c>
-      <c r="H25" t="n">
-        <v>39162.15</v>
-      </c>
-      <c r="I25" t="n">
-        <v>303725.16</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1090351.78</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" t="n">
-        <v>16</v>
-      </c>
-      <c r="C26" t="n">
-        <v>4096</v>
-      </c>
-      <c r="D26" t="n">
-        <v>64</v>
-      </c>
-      <c r="E26" t="n">
-        <v>395.03</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1402.56</v>
-      </c>
-      <c r="G26" t="n">
-        <v>651.35</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1556.45</v>
-      </c>
-      <c r="I26" t="n">
-        <v>825.5700000000001</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1972.6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>1</v>
-      </c>
-      <c r="B27" t="n">
-        <v>16</v>
-      </c>
-      <c r="C27" t="n">
-        <v>8192</v>
-      </c>
-      <c r="D27" t="n">
-        <v>64</v>
-      </c>
-      <c r="E27" t="n">
-        <v>491.15</v>
-      </c>
-      <c r="F27" t="n">
-        <v>826.14</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1615.92</v>
-      </c>
-      <c r="H27" t="n">
-        <v>3745.71</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2789.68</v>
-      </c>
-      <c r="J27" t="n">
-        <v>6295.58</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>1</v>
-      </c>
-      <c r="B28" t="n">
-        <v>16</v>
-      </c>
-      <c r="C28" t="n">
-        <v>16384</v>
-      </c>
-      <c r="D28" t="n">
-        <v>64</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1056.78</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2327.41</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1908.54</v>
-      </c>
-      <c r="H28" t="n">
-        <v>6456.15</v>
-      </c>
-      <c r="I28" t="n">
-        <v>7523.51</v>
-      </c>
-      <c r="J28" t="n">
-        <v>19669.89</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>1</v>
-      </c>
-      <c r="B29" t="n">
-        <v>16</v>
-      </c>
-      <c r="C29" t="n">
-        <v>32768</v>
-      </c>
-      <c r="D29" t="n">
-        <v>64</v>
-      </c>
-      <c r="E29" t="n">
-        <v>2024.2</v>
-      </c>
-      <c r="F29" t="n">
-        <v>4333.85</v>
-      </c>
-      <c r="G29" t="n">
-        <v>5120.32</v>
-      </c>
-      <c r="H29" t="n">
-        <v>11837.2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>25388.84</v>
-      </c>
-      <c r="J29" t="n">
-        <v>79771.67999999999</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>1</v>
-      </c>
-      <c r="B30" t="n">
-        <v>16</v>
-      </c>
-      <c r="C30" t="n">
-        <v>65536</v>
-      </c>
-      <c r="D30" t="n">
-        <v>64</v>
-      </c>
-      <c r="E30" t="n">
-        <v>2213.55</v>
-      </c>
-      <c r="F30" t="n">
-        <v>5415.95</v>
-      </c>
-      <c r="G30" t="n">
-        <v>7185.6</v>
-      </c>
-      <c r="H30" t="n">
-        <v>20741.97</v>
-      </c>
-      <c r="I30" t="n">
-        <v>100961.21</v>
-      </c>
-      <c r="J30" t="n">
-        <v>334040.2</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>1</v>
-      </c>
-      <c r="B31" t="n">
-        <v>16</v>
-      </c>
-      <c r="C31" t="n">
-        <v>131072</v>
-      </c>
-      <c r="D31" t="n">
-        <v>64</v>
-      </c>
-      <c r="E31" t="n">
-        <v>6177.09</v>
-      </c>
-      <c r="F31" t="n">
-        <v>12194.95</v>
-      </c>
-      <c r="G31" t="n">
-        <v>14188.37</v>
-      </c>
-      <c r="H31" t="n">
-        <v>40927.73</v>
-      </c>
-      <c r="I31" t="n">
-        <v>409891.17</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1485814.5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>1</v>
-      </c>
-      <c r="B32" t="n">
-        <v>32</v>
-      </c>
-      <c r="C32" t="n">
-        <v>4096</v>
-      </c>
-      <c r="D32" t="n">
-        <v>64</v>
-      </c>
-      <c r="E32" t="n">
-        <v>469.68</v>
-      </c>
-      <c r="F32" t="n">
-        <v>767.53</v>
-      </c>
-      <c r="G32" t="n">
-        <v>631.63</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1647.91</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1259.67</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3108.98</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>1</v>
-      </c>
-      <c r="B33" t="n">
-        <v>32</v>
-      </c>
-      <c r="C33" t="n">
-        <v>8192</v>
-      </c>
-      <c r="D33" t="n">
-        <v>64</v>
-      </c>
-      <c r="E33" t="n">
-        <v>588.91</v>
-      </c>
-      <c r="F33" t="n">
-        <v>2007.72</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1065.2</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2848.81</v>
-      </c>
-      <c r="I33" t="n">
-        <v>3851.33</v>
-      </c>
-      <c r="J33" t="n">
-        <v>10321.34</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>1</v>
-      </c>
-      <c r="B34" t="n">
-        <v>32</v>
-      </c>
-      <c r="C34" t="n">
-        <v>16384</v>
-      </c>
-      <c r="D34" t="n">
-        <v>64</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1238.05</v>
-      </c>
-      <c r="F34" t="n">
-        <v>3895.43</v>
-      </c>
-      <c r="G34" t="n">
-        <v>2562.22</v>
-      </c>
-      <c r="H34" t="n">
-        <v>5851.07</v>
-      </c>
-      <c r="I34" t="n">
-        <v>12946.45</v>
-      </c>
-      <c r="J34" t="n">
-        <v>38444.52</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>1</v>
-      </c>
-      <c r="B35" t="n">
-        <v>32</v>
-      </c>
-      <c r="C35" t="n">
-        <v>32768</v>
-      </c>
-      <c r="D35" t="n">
-        <v>64</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1615.54</v>
-      </c>
-      <c r="F35" t="n">
-        <v>4065.6</v>
-      </c>
-      <c r="G35" t="n">
-        <v>4218.84</v>
-      </c>
-      <c r="H35" t="n">
-        <v>11914.96</v>
-      </c>
-      <c r="I35" t="n">
-        <v>49264.21</v>
-      </c>
-      <c r="J35" t="n">
-        <v>158822.2</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>1</v>
-      </c>
-      <c r="B36" t="n">
-        <v>32</v>
-      </c>
-      <c r="C36" t="n">
-        <v>65536</v>
-      </c>
-      <c r="D36" t="n">
-        <v>64</v>
-      </c>
-      <c r="E36" t="n">
-        <v>3946.5</v>
-      </c>
-      <c r="F36" t="n">
-        <v>10004</v>
-      </c>
-      <c r="G36" t="n">
-        <v>8111.71</v>
-      </c>
-      <c r="H36" t="n">
-        <v>23111.78</v>
-      </c>
-      <c r="I36" t="n">
-        <v>203827.03</v>
-      </c>
-      <c r="J36" t="n">
-        <v>682215.97</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>1</v>
-      </c>
-      <c r="B37" t="n">
-        <v>32</v>
-      </c>
-      <c r="C37" t="n">
-        <v>131072</v>
-      </c>
-      <c r="D37" t="n">
-        <v>64</v>
-      </c>
-      <c r="E37" t="n">
-        <v>6375.24</v>
-      </c>
-      <c r="F37" t="n">
-        <v>15776.03</v>
-      </c>
-      <c r="G37" t="n">
-        <v>15247.21</v>
-      </c>
-      <c r="H37" t="n">
-        <v>43499.18</v>
-      </c>
-      <c r="I37" t="n">
-        <v>823961.15</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3023698.68</v>
+        <v>356403.24</v>
       </c>
     </row>
   </sheetData>
@@ -5178,7 +4605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5243,31 +4670,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>4096</v>
       </c>
       <c r="D2" t="n">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="E2" t="n">
-        <v>387.48</v>
+        <v>352.14</v>
       </c>
       <c r="F2" t="n">
-        <v>1258.16</v>
+        <v>791.64</v>
       </c>
       <c r="G2" t="n">
-        <v>820.22</v>
+        <v>1000.19</v>
       </c>
       <c r="H2" t="n">
-        <v>2290.4</v>
+        <v>3060.78</v>
       </c>
       <c r="I2" t="n">
-        <v>572.23</v>
+        <v>874.05</v>
       </c>
       <c r="J2" t="n">
-        <v>1404.57</v>
+        <v>1354.54</v>
       </c>
     </row>
     <row r="3">
@@ -5275,31 +4702,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="D3" t="n">
         <v>96</v>
       </c>
       <c r="E3" t="n">
-        <v>423.11</v>
+        <v>388.51</v>
       </c>
       <c r="F3" t="n">
-        <v>2013.27</v>
+        <v>1202.3</v>
       </c>
       <c r="G3" t="n">
-        <v>1199.01</v>
+        <v>765.01</v>
       </c>
       <c r="H3" t="n">
-        <v>3424.69</v>
+        <v>3573.93</v>
       </c>
       <c r="I3" t="n">
-        <v>1154.8</v>
+        <v>727.8200000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>2543.75</v>
+        <v>1481.45</v>
       </c>
     </row>
     <row r="4">
@@ -5307,31 +4734,31 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>16384</v>
+        <v>4096</v>
       </c>
       <c r="D4" t="n">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="E4" t="n">
-        <v>572.5</v>
+        <v>366.22</v>
       </c>
       <c r="F4" t="n">
-        <v>954.74</v>
+        <v>932.3099999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>1798.09</v>
+        <v>1038.37</v>
       </c>
       <c r="H4" t="n">
-        <v>5430.52</v>
+        <v>3394.57</v>
       </c>
       <c r="I4" t="n">
-        <v>2927.48</v>
+        <v>1566.32</v>
       </c>
       <c r="J4" t="n">
-        <v>7054.29</v>
+        <v>3357.71</v>
       </c>
     </row>
     <row r="5">
@@ -5339,31 +4766,31 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>32768</v>
+        <v>8192</v>
       </c>
       <c r="D5" t="n">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.06</v>
+        <v>399.05</v>
       </c>
       <c r="F5" t="n">
-        <v>3532.06</v>
+        <v>2149.34</v>
       </c>
       <c r="G5" t="n">
-        <v>4732.14</v>
+        <v>1627.72</v>
       </c>
       <c r="H5" t="n">
-        <v>12874.73</v>
+        <v>3378.63</v>
       </c>
       <c r="I5" t="n">
-        <v>8410.700000000001</v>
+        <v>1015.51</v>
       </c>
       <c r="J5" t="n">
-        <v>22338.07</v>
+        <v>2683.41</v>
       </c>
     </row>
     <row r="6">
@@ -5371,31 +4798,31 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>65536</v>
+        <v>8192</v>
       </c>
       <c r="D6" t="n">
         <v>96</v>
       </c>
       <c r="E6" t="n">
-        <v>1399.2</v>
+        <v>387.11</v>
       </c>
       <c r="F6" t="n">
-        <v>3380.78</v>
+        <v>908.79</v>
       </c>
       <c r="G6" t="n">
-        <v>7552.1</v>
+        <v>1418.8</v>
       </c>
       <c r="H6" t="n">
-        <v>22099.08</v>
+        <v>7584.95</v>
       </c>
       <c r="I6" t="n">
-        <v>24742.81</v>
+        <v>1651.9</v>
       </c>
       <c r="J6" t="n">
-        <v>88454.03999999999</v>
+        <v>3785.89</v>
       </c>
     </row>
     <row r="7">
@@ -5403,31 +4830,31 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>131072</v>
+        <v>8192</v>
       </c>
       <c r="D7" t="n">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="E7" t="n">
-        <v>4343.89</v>
+        <v>441.38</v>
       </c>
       <c r="F7" t="n">
-        <v>7749.36</v>
+        <v>809.6799999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>13164.22</v>
+        <v>1424</v>
       </c>
       <c r="H7" t="n">
-        <v>41697.72</v>
+        <v>3999.83</v>
       </c>
       <c r="I7" t="n">
-        <v>83453.92999999999</v>
+        <v>1404.4</v>
       </c>
       <c r="J7" t="n">
-        <v>358293.33</v>
+        <v>3756.01</v>
       </c>
     </row>
     <row r="8">
@@ -5438,28 +4865,28 @@
         <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>4096</v>
+        <v>16384</v>
       </c>
       <c r="D8" t="n">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="E8" t="n">
-        <v>388.51</v>
+        <v>522.24</v>
       </c>
       <c r="F8" t="n">
-        <v>1202.3</v>
+        <v>889.52</v>
       </c>
       <c r="G8" t="n">
-        <v>765.01</v>
+        <v>2268.81</v>
       </c>
       <c r="H8" t="n">
-        <v>3573.93</v>
+        <v>5222.33</v>
       </c>
       <c r="I8" t="n">
-        <v>727.8200000000001</v>
+        <v>4493.83</v>
       </c>
       <c r="J8" t="n">
-        <v>1481.45</v>
+        <v>7877.93</v>
       </c>
     </row>
     <row r="9">
@@ -5470,28 +4897,28 @@
         <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>8192</v>
+        <v>16384</v>
       </c>
       <c r="D9" t="n">
         <v>96</v>
       </c>
       <c r="E9" t="n">
-        <v>387.11</v>
+        <v>764.9299999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>908.79</v>
+        <v>1476.16</v>
       </c>
       <c r="G9" t="n">
-        <v>1418.8</v>
+        <v>2132.52</v>
       </c>
       <c r="H9" t="n">
-        <v>7584.95</v>
+        <v>5875.63</v>
       </c>
       <c r="I9" t="n">
-        <v>1651.9</v>
+        <v>3855.62</v>
       </c>
       <c r="J9" t="n">
-        <v>3785.89</v>
+        <v>10928.82</v>
       </c>
     </row>
     <row r="10">
@@ -5505,25 +4932,25 @@
         <v>16384</v>
       </c>
       <c r="D10" t="n">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="E10" t="n">
-        <v>764.9299999999999</v>
+        <v>1035.61</v>
       </c>
       <c r="F10" t="n">
-        <v>1476.16</v>
+        <v>3083.14</v>
       </c>
       <c r="G10" t="n">
-        <v>2132.52</v>
+        <v>2176.31</v>
       </c>
       <c r="H10" t="n">
-        <v>5875.63</v>
+        <v>6029.12</v>
       </c>
       <c r="I10" t="n">
-        <v>3855.62</v>
+        <v>3750.43</v>
       </c>
       <c r="J10" t="n">
-        <v>10928.82</v>
+        <v>10561.03</v>
       </c>
     </row>
     <row r="11">
@@ -5537,25 +4964,25 @@
         <v>32768</v>
       </c>
       <c r="D11" t="n">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="E11" t="n">
-        <v>1350.82</v>
+        <v>879.86</v>
       </c>
       <c r="F11" t="n">
-        <v>3001.19</v>
+        <v>1608.19</v>
       </c>
       <c r="G11" t="n">
-        <v>4108.92</v>
+        <v>5287.3</v>
       </c>
       <c r="H11" t="n">
-        <v>11732.24</v>
+        <v>11465.01</v>
       </c>
       <c r="I11" t="n">
-        <v>12409.61</v>
+        <v>7335.79</v>
       </c>
       <c r="J11" t="n">
-        <v>42743.14</v>
+        <v>17998.48</v>
       </c>
     </row>
     <row r="12">
@@ -5566,28 +4993,28 @@
         <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>65536</v>
+        <v>32768</v>
       </c>
       <c r="D12" t="n">
         <v>96</v>
       </c>
       <c r="E12" t="n">
-        <v>2426.33</v>
+        <v>1350.82</v>
       </c>
       <c r="F12" t="n">
-        <v>5433.01</v>
+        <v>3001.19</v>
       </c>
       <c r="G12" t="n">
-        <v>6945.8</v>
+        <v>4108.92</v>
       </c>
       <c r="H12" t="n">
-        <v>21715.06</v>
+        <v>11732.24</v>
       </c>
       <c r="I12" t="n">
-        <v>43110.14</v>
+        <v>12409.61</v>
       </c>
       <c r="J12" t="n">
-        <v>182930.06</v>
+        <v>42743.14</v>
       </c>
     </row>
     <row r="13">
@@ -5598,28 +5025,28 @@
         <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>131072</v>
+        <v>32768</v>
       </c>
       <c r="D13" t="n">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="E13" t="n">
-        <v>3299.87</v>
+        <v>1017.57</v>
       </c>
       <c r="F13" t="n">
-        <v>7395.71</v>
+        <v>2569.88</v>
       </c>
       <c r="G13" t="n">
-        <v>14458.77</v>
+        <v>4125.13</v>
       </c>
       <c r="H13" t="n">
-        <v>43949.42</v>
+        <v>11825.38</v>
       </c>
       <c r="I13" t="n">
-        <v>167975.78</v>
+        <v>12292.64</v>
       </c>
       <c r="J13" t="n">
-        <v>723832.12</v>
+        <v>42496.56</v>
       </c>
     </row>
     <row r="14">
@@ -5627,31 +5054,31 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>4096</v>
+        <v>65536</v>
       </c>
       <c r="D14" t="n">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="E14" t="n">
-        <v>425.31</v>
+        <v>2282.18</v>
       </c>
       <c r="F14" t="n">
-        <v>761.33</v>
+        <v>3811.91</v>
       </c>
       <c r="G14" t="n">
-        <v>711.03</v>
+        <v>6869.75</v>
       </c>
       <c r="H14" t="n">
-        <v>2217.91</v>
+        <v>19664.03</v>
       </c>
       <c r="I14" t="n">
-        <v>824.9400000000001</v>
+        <v>28860.25</v>
       </c>
       <c r="J14" t="n">
-        <v>2412.76</v>
+        <v>74065.35000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5659,31 +5086,31 @@
         <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>8192</v>
+        <v>65536</v>
       </c>
       <c r="D15" t="n">
         <v>96</v>
       </c>
       <c r="E15" t="n">
-        <v>486.83</v>
+        <v>2426.33</v>
       </c>
       <c r="F15" t="n">
-        <v>918.64</v>
+        <v>5433.01</v>
       </c>
       <c r="G15" t="n">
-        <v>1312.93</v>
+        <v>6945.8</v>
       </c>
       <c r="H15" t="n">
-        <v>3646.38</v>
+        <v>21715.06</v>
       </c>
       <c r="I15" t="n">
-        <v>2543.91</v>
+        <v>43110.14</v>
       </c>
       <c r="J15" t="n">
-        <v>6689.91</v>
+        <v>182930.06</v>
       </c>
     </row>
     <row r="16">
@@ -5691,31 +5118,31 @@
         <v>1</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>16384</v>
+        <v>65536</v>
       </c>
       <c r="D16" t="n">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="E16" t="n">
-        <v>802.6799999999999</v>
+        <v>2861.15</v>
       </c>
       <c r="F16" t="n">
-        <v>1864.4</v>
+        <v>6868.3</v>
       </c>
       <c r="G16" t="n">
-        <v>2462.57</v>
+        <v>8455.120000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>6464.57</v>
+        <v>24627.72</v>
       </c>
       <c r="I16" t="n">
-        <v>8729.540000000001</v>
+        <v>43000.49</v>
       </c>
       <c r="J16" t="n">
-        <v>25427.07</v>
+        <v>184699.95</v>
       </c>
     </row>
     <row r="17">
@@ -5723,31 +5150,31 @@
         <v>1</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>32768</v>
+        <v>131072</v>
       </c>
       <c r="D17" t="n">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="E17" t="n">
-        <v>1154.24</v>
+        <v>2961.5</v>
       </c>
       <c r="F17" t="n">
-        <v>4368.95</v>
+        <v>6532.68</v>
       </c>
       <c r="G17" t="n">
-        <v>6345.68</v>
+        <v>12891.12</v>
       </c>
       <c r="H17" t="n">
-        <v>13703.4</v>
+        <v>38019.22</v>
       </c>
       <c r="I17" t="n">
-        <v>22139.54</v>
+        <v>101772.68</v>
       </c>
       <c r="J17" t="n">
-        <v>92336.92</v>
+        <v>302310.49</v>
       </c>
     </row>
     <row r="18">
@@ -5755,31 +5182,31 @@
         <v>1</v>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>65536</v>
+        <v>131072</v>
       </c>
       <c r="D18" t="n">
         <v>96</v>
       </c>
       <c r="E18" t="n">
-        <v>2059.2</v>
+        <v>3299.87</v>
       </c>
       <c r="F18" t="n">
-        <v>4988.72</v>
+        <v>7395.71</v>
       </c>
       <c r="G18" t="n">
-        <v>8227.049999999999</v>
+        <v>14458.77</v>
       </c>
       <c r="H18" t="n">
-        <v>24296.36</v>
+        <v>43949.42</v>
       </c>
       <c r="I18" t="n">
-        <v>82781.8</v>
+        <v>167975.78</v>
       </c>
       <c r="J18" t="n">
-        <v>380012.55</v>
+        <v>723832.12</v>
       </c>
     </row>
     <row r="19">
@@ -5787,607 +5214,31 @@
         <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
         <v>131072</v>
       </c>
       <c r="D19" t="n">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="E19" t="n">
-        <v>4667.57</v>
+        <v>3559.18</v>
       </c>
       <c r="F19" t="n">
-        <v>10754.21</v>
+        <v>7720.56</v>
       </c>
       <c r="G19" t="n">
-        <v>15520.04</v>
+        <v>15310.73</v>
       </c>
       <c r="H19" t="n">
-        <v>47868.25</v>
+        <v>47463.01</v>
       </c>
       <c r="I19" t="n">
-        <v>332142.95</v>
+        <v>170647.08</v>
       </c>
       <c r="J19" t="n">
-        <v>1536831.92</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" t="n">
-        <v>12</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4096</v>
-      </c>
-      <c r="D20" t="n">
-        <v>96</v>
-      </c>
-      <c r="E20" t="n">
-        <v>605.54</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1090.2</v>
-      </c>
-      <c r="G20" t="n">
-        <v>888.9</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2872.7</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1062.55</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2839.61</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="n">
-        <v>12</v>
-      </c>
-      <c r="C21" t="n">
-        <v>8192</v>
-      </c>
-      <c r="D21" t="n">
-        <v>96</v>
-      </c>
-      <c r="E21" t="n">
-        <v>495.11</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1002.03</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1183.78</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3455.69</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2597.45</v>
-      </c>
-      <c r="J21" t="n">
-        <v>8967.629999999999</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" t="n">
-        <v>12</v>
-      </c>
-      <c r="C22" t="n">
-        <v>16384</v>
-      </c>
-      <c r="D22" t="n">
-        <v>96</v>
-      </c>
-      <c r="E22" t="n">
-        <v>954.61</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2914</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2519.25</v>
-      </c>
-      <c r="H22" t="n">
-        <v>7779.9</v>
-      </c>
-      <c r="I22" t="n">
-        <v>8591.700000000001</v>
-      </c>
-      <c r="J22" t="n">
-        <v>33909.12</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" t="n">
-        <v>12</v>
-      </c>
-      <c r="C23" t="n">
-        <v>32768</v>
-      </c>
-      <c r="D23" t="n">
-        <v>96</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1254.02</v>
-      </c>
-      <c r="F23" t="n">
-        <v>3197.43</v>
-      </c>
-      <c r="G23" t="n">
-        <v>4032.67</v>
-      </c>
-      <c r="H23" t="n">
-        <v>12435.05</v>
-      </c>
-      <c r="I23" t="n">
-        <v>30716.77</v>
-      </c>
-      <c r="J23" t="n">
-        <v>143004.31</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" t="n">
-        <v>12</v>
-      </c>
-      <c r="C24" t="n">
-        <v>65536</v>
-      </c>
-      <c r="D24" t="n">
-        <v>96</v>
-      </c>
-      <c r="E24" t="n">
-        <v>2373.6</v>
-      </c>
-      <c r="F24" t="n">
-        <v>6984.34</v>
-      </c>
-      <c r="G24" t="n">
-        <v>11073.59</v>
-      </c>
-      <c r="H24" t="n">
-        <v>28423.92</v>
-      </c>
-      <c r="I24" t="n">
-        <v>122586.25</v>
-      </c>
-      <c r="J24" t="n">
-        <v>625782.87</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>1</v>
-      </c>
-      <c r="B25" t="n">
-        <v>12</v>
-      </c>
-      <c r="C25" t="n">
-        <v>131072</v>
-      </c>
-      <c r="D25" t="n">
-        <v>96</v>
-      </c>
-      <c r="E25" t="n">
-        <v>5052</v>
-      </c>
-      <c r="F25" t="n">
-        <v>13508.98</v>
-      </c>
-      <c r="G25" t="n">
-        <v>18612.3</v>
-      </c>
-      <c r="H25" t="n">
-        <v>50824.24</v>
-      </c>
-      <c r="I25" t="n">
-        <v>494616.31</v>
-      </c>
-      <c r="J25" t="n">
-        <v>2590110.42</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" t="n">
-        <v>16</v>
-      </c>
-      <c r="C26" t="n">
-        <v>4096</v>
-      </c>
-      <c r="D26" t="n">
-        <v>96</v>
-      </c>
-      <c r="E26" t="n">
-        <v>413.43</v>
-      </c>
-      <c r="F26" t="n">
-        <v>2999.91</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1311.85</v>
-      </c>
-      <c r="H26" t="n">
-        <v>4112.12</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1324.54</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3456</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>1</v>
-      </c>
-      <c r="B27" t="n">
-        <v>16</v>
-      </c>
-      <c r="C27" t="n">
-        <v>8192</v>
-      </c>
-      <c r="D27" t="n">
-        <v>96</v>
-      </c>
-      <c r="E27" t="n">
-        <v>540.14</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1475.76</v>
-      </c>
-      <c r="G27" t="n">
-        <v>2163.52</v>
-      </c>
-      <c r="H27" t="n">
-        <v>3955.53</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3528.56</v>
-      </c>
-      <c r="J27" t="n">
-        <v>11543.73</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>1</v>
-      </c>
-      <c r="B28" t="n">
-        <v>16</v>
-      </c>
-      <c r="C28" t="n">
-        <v>16384</v>
-      </c>
-      <c r="D28" t="n">
-        <v>96</v>
-      </c>
-      <c r="E28" t="n">
-        <v>985.7</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2767.62</v>
-      </c>
-      <c r="G28" t="n">
-        <v>3203.42</v>
-      </c>
-      <c r="H28" t="n">
-        <v>8716.15</v>
-      </c>
-      <c r="I28" t="n">
-        <v>11107.63</v>
-      </c>
-      <c r="J28" t="n">
-        <v>45346.51</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>1</v>
-      </c>
-      <c r="B29" t="n">
-        <v>16</v>
-      </c>
-      <c r="C29" t="n">
-        <v>32768</v>
-      </c>
-      <c r="D29" t="n">
-        <v>96</v>
-      </c>
-      <c r="E29" t="n">
-        <v>2468.23</v>
-      </c>
-      <c r="F29" t="n">
-        <v>4617.37</v>
-      </c>
-      <c r="G29" t="n">
-        <v>4604.01</v>
-      </c>
-      <c r="H29" t="n">
-        <v>14022.79</v>
-      </c>
-      <c r="I29" t="n">
-        <v>40612.61</v>
-      </c>
-      <c r="J29" t="n">
-        <v>193334.28</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>1</v>
-      </c>
-      <c r="B30" t="n">
-        <v>16</v>
-      </c>
-      <c r="C30" t="n">
-        <v>65536</v>
-      </c>
-      <c r="D30" t="n">
-        <v>96</v>
-      </c>
-      <c r="E30" t="n">
-        <v>3095.83</v>
-      </c>
-      <c r="F30" t="n">
-        <v>7726.97</v>
-      </c>
-      <c r="G30" t="n">
-        <v>8973.1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>26712.24</v>
-      </c>
-      <c r="I30" t="n">
-        <v>165426.01</v>
-      </c>
-      <c r="J30" t="n">
-        <v>851994.77</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>1</v>
-      </c>
-      <c r="B31" t="n">
-        <v>16</v>
-      </c>
-      <c r="C31" t="n">
-        <v>131072</v>
-      </c>
-      <c r="D31" t="n">
-        <v>96</v>
-      </c>
-      <c r="E31" t="n">
-        <v>5900.92</v>
-      </c>
-      <c r="F31" t="n">
-        <v>15741.57</v>
-      </c>
-      <c r="G31" t="n">
-        <v>17919.47</v>
-      </c>
-      <c r="H31" t="n">
-        <v>52674.13</v>
-      </c>
-      <c r="I31" t="n">
-        <v>663660.33</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3490785.43</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>1</v>
-      </c>
-      <c r="B32" t="n">
-        <v>32</v>
-      </c>
-      <c r="C32" t="n">
-        <v>4096</v>
-      </c>
-      <c r="D32" t="n">
-        <v>96</v>
-      </c>
-      <c r="E32" t="n">
-        <v>488.73</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1267.62</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1423.04</v>
-      </c>
-      <c r="H32" t="n">
-        <v>3794.94</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1919.27</v>
-      </c>
-      <c r="J32" t="n">
-        <v>6307.7</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>1</v>
-      </c>
-      <c r="B33" t="n">
-        <v>32</v>
-      </c>
-      <c r="C33" t="n">
-        <v>8192</v>
-      </c>
-      <c r="D33" t="n">
-        <v>96</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1436.32</v>
-      </c>
-      <c r="F33" t="n">
-        <v>3923.46</v>
-      </c>
-      <c r="G33" t="n">
-        <v>3146.75</v>
-      </c>
-      <c r="H33" t="n">
-        <v>7033.73</v>
-      </c>
-      <c r="I33" t="n">
-        <v>6445.52</v>
-      </c>
-      <c r="J33" t="n">
-        <v>22996.63</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>1</v>
-      </c>
-      <c r="B34" t="n">
-        <v>32</v>
-      </c>
-      <c r="C34" t="n">
-        <v>16384</v>
-      </c>
-      <c r="D34" t="n">
-        <v>96</v>
-      </c>
-      <c r="E34" t="n">
-        <v>2384.5</v>
-      </c>
-      <c r="F34" t="n">
-        <v>5811.38</v>
-      </c>
-      <c r="G34" t="n">
-        <v>3295.5</v>
-      </c>
-      <c r="H34" t="n">
-        <v>10134.53</v>
-      </c>
-      <c r="I34" t="n">
-        <v>20866.56</v>
-      </c>
-      <c r="J34" t="n">
-        <v>90422.89</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>1</v>
-      </c>
-      <c r="B35" t="n">
-        <v>32</v>
-      </c>
-      <c r="C35" t="n">
-        <v>32768</v>
-      </c>
-      <c r="D35" t="n">
-        <v>96</v>
-      </c>
-      <c r="E35" t="n">
-        <v>2836.67</v>
-      </c>
-      <c r="F35" t="n">
-        <v>7663.95</v>
-      </c>
-      <c r="G35" t="n">
-        <v>6247.77</v>
-      </c>
-      <c r="H35" t="n">
-        <v>20521.36</v>
-      </c>
-      <c r="I35" t="n">
-        <v>81336.75</v>
-      </c>
-      <c r="J35" t="n">
-        <v>388142.45</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>1</v>
-      </c>
-      <c r="B36" t="n">
-        <v>32</v>
-      </c>
-      <c r="C36" t="n">
-        <v>65536</v>
-      </c>
-      <c r="D36" t="n">
-        <v>96</v>
-      </c>
-      <c r="E36" t="n">
-        <v>5309.76</v>
-      </c>
-      <c r="F36" t="n">
-        <v>14632.24</v>
-      </c>
-      <c r="G36" t="n">
-        <v>12575.95</v>
-      </c>
-      <c r="H36" t="n">
-        <v>40878.2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>328461.92</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1727908.38</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>1</v>
-      </c>
-      <c r="B37" t="n">
-        <v>32</v>
-      </c>
-      <c r="C37" t="n">
-        <v>131072</v>
-      </c>
-      <c r="D37" t="n">
-        <v>96</v>
-      </c>
-      <c r="E37" t="n">
-        <v>9338.07</v>
-      </c>
-      <c r="F37" t="n">
-        <v>27986.12</v>
-      </c>
-      <c r="G37" t="n">
-        <v>27717.09</v>
-      </c>
-      <c r="H37" t="n">
-        <v>91230.13</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1332352.9</v>
-      </c>
-      <c r="J37" t="n">
-        <v>7032663.19</v>
+        <v>724669.17</v>
       </c>
     </row>
   </sheetData>
@@ -6401,7 +5252,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6466,31 +5317,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>4096</v>
       </c>
       <c r="D2" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="E2" t="n">
-        <v>407.46</v>
+        <v>441.69</v>
       </c>
       <c r="F2" t="n">
-        <v>1065.87</v>
+        <v>3344.41</v>
       </c>
       <c r="G2" t="n">
-        <v>1803.64</v>
+        <v>857.1</v>
       </c>
       <c r="H2" t="n">
-        <v>2368.84</v>
+        <v>3390.81</v>
       </c>
       <c r="I2" t="n">
-        <v>770.74</v>
+        <v>615.6</v>
       </c>
       <c r="J2" t="n">
-        <v>1287.13</v>
+        <v>1562.07</v>
       </c>
     </row>
     <row r="3">
@@ -6498,31 +5349,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="D3" t="n">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="E3" t="n">
-        <v>464.77</v>
+        <v>425.31</v>
       </c>
       <c r="F3" t="n">
-        <v>1350</v>
+        <v>761.33</v>
       </c>
       <c r="G3" t="n">
-        <v>1615.3</v>
+        <v>711.03</v>
       </c>
       <c r="H3" t="n">
-        <v>3349.94</v>
+        <v>2217.91</v>
       </c>
       <c r="I3" t="n">
-        <v>1512.86</v>
+        <v>824.9400000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>2509.21</v>
+        <v>2412.76</v>
       </c>
     </row>
     <row r="4">
@@ -6530,31 +5381,31 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>16384</v>
+        <v>4096</v>
       </c>
       <c r="D4" t="n">
         <v>128</v>
       </c>
       <c r="E4" t="n">
-        <v>602.14</v>
+        <v>449.75</v>
       </c>
       <c r="F4" t="n">
-        <v>1340.62</v>
+        <v>1858.18</v>
       </c>
       <c r="G4" t="n">
-        <v>1882.55</v>
+        <v>813.1900000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>5595.41</v>
+        <v>2116.94</v>
       </c>
       <c r="I4" t="n">
-        <v>2452.63</v>
+        <v>1458.99</v>
       </c>
       <c r="J4" t="n">
-        <v>6225.32</v>
+        <v>3393.13</v>
       </c>
     </row>
     <row r="5">
@@ -6562,31 +5413,31 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>32768</v>
+        <v>8192</v>
       </c>
       <c r="D5" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="E5" t="n">
-        <v>869.97</v>
+        <v>470.22</v>
       </c>
       <c r="F5" t="n">
-        <v>1710.85</v>
+        <v>2579.83</v>
       </c>
       <c r="G5" t="n">
-        <v>4014.69</v>
+        <v>1101.27</v>
       </c>
       <c r="H5" t="n">
-        <v>10944.46</v>
+        <v>3028.41</v>
       </c>
       <c r="I5" t="n">
-        <v>8315.68</v>
+        <v>1872.81</v>
       </c>
       <c r="J5" t="n">
-        <v>21714.07</v>
+        <v>3988.03</v>
       </c>
     </row>
     <row r="6">
@@ -6594,31 +5445,31 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>65536</v>
+        <v>8192</v>
       </c>
       <c r="D6" t="n">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="E6" t="n">
-        <v>1450.09</v>
+        <v>486.83</v>
       </c>
       <c r="F6" t="n">
-        <v>3201.62</v>
+        <v>918.64</v>
       </c>
       <c r="G6" t="n">
-        <v>7739.3</v>
+        <v>1312.93</v>
       </c>
       <c r="H6" t="n">
-        <v>22783.43</v>
+        <v>3646.38</v>
       </c>
       <c r="I6" t="n">
-        <v>22935.9</v>
+        <v>2543.91</v>
       </c>
       <c r="J6" t="n">
-        <v>88567.53</v>
+        <v>6689.91</v>
       </c>
     </row>
     <row r="7">
@@ -6626,31 +5477,31 @@
         <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>131072</v>
+        <v>8192</v>
       </c>
       <c r="D7" t="n">
         <v>128</v>
       </c>
       <c r="E7" t="n">
-        <v>2994.37</v>
+        <v>530.26</v>
       </c>
       <c r="F7" t="n">
-        <v>6685.98</v>
+        <v>1460.43</v>
       </c>
       <c r="G7" t="n">
-        <v>14020.09</v>
+        <v>1271.38</v>
       </c>
       <c r="H7" t="n">
-        <v>43157.47</v>
+        <v>5392.06</v>
       </c>
       <c r="I7" t="n">
-        <v>88426.37</v>
+        <v>2409.39</v>
       </c>
       <c r="J7" t="n">
-        <v>356403.24</v>
+        <v>6441.03</v>
       </c>
     </row>
     <row r="8">
@@ -6658,31 +5509,31 @@
         <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>4096</v>
+        <v>16384</v>
       </c>
       <c r="D8" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="E8" t="n">
-        <v>366.22</v>
+        <v>734.67</v>
       </c>
       <c r="F8" t="n">
-        <v>932.3099999999999</v>
+        <v>2150.9</v>
       </c>
       <c r="G8" t="n">
-        <v>1038.37</v>
+        <v>1856.35</v>
       </c>
       <c r="H8" t="n">
-        <v>3394.57</v>
+        <v>5545.6</v>
       </c>
       <c r="I8" t="n">
-        <v>1566.32</v>
+        <v>4084.74</v>
       </c>
       <c r="J8" t="n">
-        <v>3357.71</v>
+        <v>10711.71</v>
       </c>
     </row>
     <row r="9">
@@ -6690,31 +5541,31 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>8192</v>
+        <v>16384</v>
       </c>
       <c r="D9" t="n">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="E9" t="n">
-        <v>441.38</v>
+        <v>802.6799999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>809.6799999999999</v>
+        <v>1864.4</v>
       </c>
       <c r="G9" t="n">
-        <v>1424</v>
+        <v>2462.57</v>
       </c>
       <c r="H9" t="n">
-        <v>3999.83</v>
+        <v>6464.57</v>
       </c>
       <c r="I9" t="n">
-        <v>1404.4</v>
+        <v>8729.540000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>3756.01</v>
+        <v>25427.07</v>
       </c>
     </row>
     <row r="10">
@@ -6722,7 +5573,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
         <v>16384</v>
@@ -6731,22 +5582,22 @@
         <v>128</v>
       </c>
       <c r="E10" t="n">
-        <v>1035.61</v>
+        <v>1004.92</v>
       </c>
       <c r="F10" t="n">
-        <v>3083.14</v>
+        <v>3227.19</v>
       </c>
       <c r="G10" t="n">
-        <v>2176.31</v>
+        <v>2455.3</v>
       </c>
       <c r="H10" t="n">
-        <v>6029.12</v>
+        <v>6923.06</v>
       </c>
       <c r="I10" t="n">
-        <v>3750.43</v>
+        <v>6222.37</v>
       </c>
       <c r="J10" t="n">
-        <v>10561.03</v>
+        <v>22551.75</v>
       </c>
     </row>
     <row r="11">
@@ -6754,31 +5605,31 @@
         <v>1</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
         <v>32768</v>
       </c>
       <c r="D11" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="E11" t="n">
-        <v>1017.57</v>
+        <v>1268.64</v>
       </c>
       <c r="F11" t="n">
-        <v>2569.88</v>
+        <v>2639.31</v>
       </c>
       <c r="G11" t="n">
-        <v>4125.13</v>
+        <v>3833.93</v>
       </c>
       <c r="H11" t="n">
-        <v>11825.38</v>
+        <v>10277.51</v>
       </c>
       <c r="I11" t="n">
-        <v>12292.64</v>
+        <v>13192.63</v>
       </c>
       <c r="J11" t="n">
-        <v>42496.56</v>
+        <v>38578.86</v>
       </c>
     </row>
     <row r="12">
@@ -6786,31 +5637,31 @@
         <v>1</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>65536</v>
+        <v>32768</v>
       </c>
       <c r="D12" t="n">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="E12" t="n">
-        <v>2861.15</v>
+        <v>1154.24</v>
       </c>
       <c r="F12" t="n">
-        <v>6868.3</v>
+        <v>4368.95</v>
       </c>
       <c r="G12" t="n">
-        <v>8455.120000000001</v>
+        <v>6345.68</v>
       </c>
       <c r="H12" t="n">
-        <v>24627.72</v>
+        <v>13703.4</v>
       </c>
       <c r="I12" t="n">
-        <v>43000.49</v>
+        <v>22139.54</v>
       </c>
       <c r="J12" t="n">
-        <v>184699.95</v>
+        <v>92336.92</v>
       </c>
     </row>
     <row r="13">
@@ -6818,31 +5669,31 @@
         <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>131072</v>
+        <v>32768</v>
       </c>
       <c r="D13" t="n">
         <v>128</v>
       </c>
       <c r="E13" t="n">
-        <v>3559.18</v>
+        <v>1929.08</v>
       </c>
       <c r="F13" t="n">
-        <v>7720.56</v>
+        <v>4023.48</v>
       </c>
       <c r="G13" t="n">
-        <v>15310.73</v>
+        <v>3893.59</v>
       </c>
       <c r="H13" t="n">
-        <v>47463.01</v>
+        <v>12347.56</v>
       </c>
       <c r="I13" t="n">
-        <v>170647.08</v>
+        <v>21635.53</v>
       </c>
       <c r="J13" t="n">
-        <v>724669.17</v>
+        <v>92131.69</v>
       </c>
     </row>
     <row r="14">
@@ -6853,28 +5704,28 @@
         <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>4096</v>
+        <v>65536</v>
       </c>
       <c r="D14" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="E14" t="n">
-        <v>449.75</v>
+        <v>2220.75</v>
       </c>
       <c r="F14" t="n">
-        <v>1858.18</v>
+        <v>5542.54</v>
       </c>
       <c r="G14" t="n">
-        <v>813.1900000000001</v>
+        <v>9214.129999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>2116.94</v>
+        <v>21136.64</v>
       </c>
       <c r="I14" t="n">
-        <v>1458.99</v>
+        <v>50100.58</v>
       </c>
       <c r="J14" t="n">
-        <v>3393.13</v>
+        <v>156748.52</v>
       </c>
     </row>
     <row r="15">
@@ -6885,28 +5736,28 @@
         <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>8192</v>
+        <v>65536</v>
       </c>
       <c r="D15" t="n">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="E15" t="n">
-        <v>530.26</v>
+        <v>2059.2</v>
       </c>
       <c r="F15" t="n">
-        <v>1460.43</v>
+        <v>4988.72</v>
       </c>
       <c r="G15" t="n">
-        <v>1271.38</v>
+        <v>8227.049999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>5392.06</v>
+        <v>24296.36</v>
       </c>
       <c r="I15" t="n">
-        <v>2409.39</v>
+        <v>82781.8</v>
       </c>
       <c r="J15" t="n">
-        <v>6441.03</v>
+        <v>380012.55</v>
       </c>
     </row>
     <row r="16">
@@ -6917,28 +5768,28 @@
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>16384</v>
+        <v>65536</v>
       </c>
       <c r="D16" t="n">
         <v>128</v>
       </c>
       <c r="E16" t="n">
-        <v>1004.92</v>
+        <v>3159.04</v>
       </c>
       <c r="F16" t="n">
-        <v>3227.19</v>
+        <v>8528.6</v>
       </c>
       <c r="G16" t="n">
-        <v>2455.3</v>
+        <v>10054.29</v>
       </c>
       <c r="H16" t="n">
-        <v>6923.06</v>
+        <v>26818.41</v>
       </c>
       <c r="I16" t="n">
-        <v>6222.37</v>
+        <v>83656.92999999999</v>
       </c>
       <c r="J16" t="n">
-        <v>22551.75</v>
+        <v>383861.25</v>
       </c>
     </row>
     <row r="17">
@@ -6949,28 +5800,28 @@
         <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>32768</v>
+        <v>131072</v>
       </c>
       <c r="D17" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="E17" t="n">
-        <v>1929.08</v>
+        <v>2937.44</v>
       </c>
       <c r="F17" t="n">
-        <v>4023.48</v>
+        <v>6968.38</v>
       </c>
       <c r="G17" t="n">
-        <v>3893.59</v>
+        <v>13152.35</v>
       </c>
       <c r="H17" t="n">
-        <v>12347.56</v>
+        <v>39000.05</v>
       </c>
       <c r="I17" t="n">
-        <v>21635.53</v>
+        <v>203124.14</v>
       </c>
       <c r="J17" t="n">
-        <v>92131.69</v>
+        <v>657327.79</v>
       </c>
     </row>
     <row r="18">
@@ -6981,28 +5832,28 @@
         <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>65536</v>
+        <v>131072</v>
       </c>
       <c r="D18" t="n">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="E18" t="n">
-        <v>3159.04</v>
+        <v>4667.57</v>
       </c>
       <c r="F18" t="n">
-        <v>8528.6</v>
+        <v>10754.21</v>
       </c>
       <c r="G18" t="n">
-        <v>10054.29</v>
+        <v>15520.04</v>
       </c>
       <c r="H18" t="n">
-        <v>26818.41</v>
+        <v>47868.25</v>
       </c>
       <c r="I18" t="n">
-        <v>83656.92999999999</v>
+        <v>332142.95</v>
       </c>
       <c r="J18" t="n">
-        <v>383861.25</v>
+        <v>1536831.92</v>
       </c>
     </row>
     <row r="19">
@@ -7037,579 +5888,1944 @@
         <v>1558449.79</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" t="n">
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>materialized_forward_us</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>materialized_backward_us</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>non-materialized_forward_us</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>non-materialized_backward_us</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>left-product_forward_us</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>left-product_backward_us</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
         <v>12</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C2" t="n">
         <v>4096</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D2" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2" t="n">
+        <v>400.85</v>
+      </c>
+      <c r="F2" t="n">
+        <v>776.9299999999999</v>
+      </c>
+      <c r="G2" t="n">
+        <v>647.77</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2017.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>738.9400000000001</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1829.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D3" t="n">
+        <v>96</v>
+      </c>
+      <c r="E3" t="n">
+        <v>605.54</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1090.2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>888.9</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2872.7</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1062.55</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2839.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D4" t="n">
         <v>128</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E4" t="n">
         <v>546.26</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F4" t="n">
         <v>2662.39</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G4" t="n">
         <v>1043.23</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H4" t="n">
         <v>4052.29</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I4" t="n">
         <v>1026.25</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J4" t="n">
         <v>2742.54</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="n">
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
         <v>12</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C5" t="n">
         <v>8192</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D5" t="n">
+        <v>64</v>
+      </c>
+      <c r="E5" t="n">
+        <v>499.16</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1104.28</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1294.19</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4348.52</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1711.79</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4279.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E6" t="n">
+        <v>495.11</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1002.03</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1183.78</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3455.69</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2597.45</v>
+      </c>
+      <c r="J6" t="n">
+        <v>8967.629999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>12</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D7" t="n">
         <v>128</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E7" t="n">
         <v>585.47</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F7" t="n">
         <v>2020.52</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G7" t="n">
         <v>1261.8</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H7" t="n">
         <v>3595.96</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I7" t="n">
         <v>2588.69</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J7" t="n">
         <v>8828.33</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>1</v>
-      </c>
-      <c r="B22" t="n">
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
         <v>12</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C8" t="n">
         <v>16384</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D8" t="n">
+        <v>64</v>
+      </c>
+      <c r="E8" t="n">
+        <v>996.89</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2535.35</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1968.62</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5379.69</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5437.22</v>
+      </c>
+      <c r="J8" t="n">
+        <v>15228.49</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>12</v>
+      </c>
+      <c r="C9" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D9" t="n">
+        <v>96</v>
+      </c>
+      <c r="E9" t="n">
+        <v>954.61</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2914</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2519.25</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7779.9</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8591.700000000001</v>
+      </c>
+      <c r="J9" t="n">
+        <v>33909.12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>12</v>
+      </c>
+      <c r="C10" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D10" t="n">
         <v>128</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E10" t="n">
         <v>951.55</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F10" t="n">
         <v>2441.23</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G10" t="n">
         <v>3533.11</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H10" t="n">
         <v>7847.6</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I10" t="n">
         <v>8635.35</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J10" t="n">
         <v>34130.55</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>1</v>
-      </c>
-      <c r="B23" t="n">
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
         <v>12</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C11" t="n">
         <v>32768</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D11" t="n">
+        <v>64</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1854.51</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3821.21</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3464.37</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9954.42</v>
+      </c>
+      <c r="I11" t="n">
+        <v>18956.18</v>
+      </c>
+      <c r="J11" t="n">
+        <v>59091.75</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>12</v>
+      </c>
+      <c r="C12" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D12" t="n">
+        <v>96</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1254.02</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3197.43</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4032.67</v>
+      </c>
+      <c r="H12" t="n">
+        <v>12435.05</v>
+      </c>
+      <c r="I12" t="n">
+        <v>30716.77</v>
+      </c>
+      <c r="J12" t="n">
+        <v>143004.31</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D13" t="n">
         <v>128</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E13" t="n">
         <v>1457.39</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F13" t="n">
         <v>3892.18</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G13" t="n">
         <v>4468.42</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H13" t="n">
         <v>13357.96</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I13" t="n">
         <v>31155.46</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J13" t="n">
         <v>143941.3</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" t="n">
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="n">
         <v>12</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C14" t="n">
         <v>65536</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D14" t="n">
+        <v>64</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2972.04</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6020.07</v>
+      </c>
+      <c r="G14" t="n">
+        <v>7537.78</v>
+      </c>
+      <c r="H14" t="n">
+        <v>20191.3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>74948.22</v>
+      </c>
+      <c r="J14" t="n">
+        <v>244708.85</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>12</v>
+      </c>
+      <c r="C15" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D15" t="n">
+        <v>96</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2373.6</v>
+      </c>
+      <c r="F15" t="n">
+        <v>6984.34</v>
+      </c>
+      <c r="G15" t="n">
+        <v>11073.59</v>
+      </c>
+      <c r="H15" t="n">
+        <v>28423.92</v>
+      </c>
+      <c r="I15" t="n">
+        <v>122586.25</v>
+      </c>
+      <c r="J15" t="n">
+        <v>625782.87</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>12</v>
+      </c>
+      <c r="C16" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D16" t="n">
         <v>128</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E16" t="n">
         <v>2778.2</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F16" t="n">
         <v>7735.82</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G16" t="n">
         <v>11726.39</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H16" t="n">
         <v>31275.85</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I16" t="n">
         <v>126683.89</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J16" t="n">
         <v>632512.99</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>1</v>
-      </c>
-      <c r="B25" t="n">
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="n">
         <v>12</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C17" t="n">
         <v>131072</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D17" t="n">
+        <v>64</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3359.45</v>
+      </c>
+      <c r="F17" t="n">
+        <v>8502.34</v>
+      </c>
+      <c r="G17" t="n">
+        <v>13610.45</v>
+      </c>
+      <c r="H17" t="n">
+        <v>39162.15</v>
+      </c>
+      <c r="I17" t="n">
+        <v>303725.16</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1090351.78</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="n">
+        <v>12</v>
+      </c>
+      <c r="C18" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D18" t="n">
+        <v>96</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5052</v>
+      </c>
+      <c r="F18" t="n">
+        <v>13508.98</v>
+      </c>
+      <c r="G18" t="n">
+        <v>18612.3</v>
+      </c>
+      <c r="H18" t="n">
+        <v>50824.24</v>
+      </c>
+      <c r="I18" t="n">
+        <v>494616.31</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2590110.42</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="n">
+        <v>12</v>
+      </c>
+      <c r="C19" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D19" t="n">
         <v>128</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E19" t="n">
         <v>10594.12</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F19" t="n">
         <v>21621.36</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G19" t="n">
         <v>17268.7</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H19" t="n">
         <v>52540.42</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I19" t="n">
         <v>511285.37</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J19" t="n">
         <v>2635571.33</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" t="n">
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>materialized_forward_us</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>materialized_backward_us</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>non-materialized_forward_us</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>non-materialized_backward_us</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>left-product_forward_us</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>left-product_backward_us</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
         <v>16</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C2" t="n">
         <v>4096</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D2" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2" t="n">
+        <v>395.03</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1402.56</v>
+      </c>
+      <c r="G2" t="n">
+        <v>651.35</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1556.45</v>
+      </c>
+      <c r="I2" t="n">
+        <v>825.5700000000001</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1972.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D3" t="n">
+        <v>96</v>
+      </c>
+      <c r="E3" t="n">
+        <v>413.43</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2999.91</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1311.85</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4112.12</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1324.54</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>16</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D4" t="n">
         <v>128</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E4" t="n">
         <v>495.87</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F4" t="n">
         <v>3337.23</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G4" t="n">
         <v>833.59</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H4" t="n">
         <v>2226.52</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I4" t="n">
         <v>1128.33</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J4" t="n">
         <v>3600.8</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>1</v>
-      </c>
-      <c r="B27" t="n">
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
         <v>16</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C5" t="n">
         <v>8192</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D5" t="n">
+        <v>64</v>
+      </c>
+      <c r="E5" t="n">
+        <v>491.15</v>
+      </c>
+      <c r="F5" t="n">
+        <v>826.14</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1615.92</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3745.71</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2789.68</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6295.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>16</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E6" t="n">
+        <v>540.14</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1475.76</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2163.52</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3955.53</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3528.56</v>
+      </c>
+      <c r="J6" t="n">
+        <v>11543.73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D7" t="n">
         <v>128</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E7" t="n">
         <v>708.46</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F7" t="n">
         <v>3170.05</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G7" t="n">
         <v>1657.31</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H7" t="n">
         <v>4154.44</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I7" t="n">
         <v>3214.77</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J7" t="n">
         <v>11421.83</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>1</v>
-      </c>
-      <c r="B28" t="n">
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
         <v>16</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C8" t="n">
         <v>16384</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D8" t="n">
+        <v>64</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1056.78</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2327.41</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1908.54</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6456.15</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7523.51</v>
+      </c>
+      <c r="J8" t="n">
+        <v>19669.89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>16</v>
+      </c>
+      <c r="C9" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D9" t="n">
+        <v>96</v>
+      </c>
+      <c r="E9" t="n">
+        <v>985.7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2767.62</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3203.42</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8716.15</v>
+      </c>
+      <c r="I9" t="n">
+        <v>11107.63</v>
+      </c>
+      <c r="J9" t="n">
+        <v>45346.51</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>16</v>
+      </c>
+      <c r="C10" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D10" t="n">
         <v>128</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E10" t="n">
         <v>1310.73</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F10" t="n">
         <v>3817.83</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G10" t="n">
         <v>3512.12</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H10" t="n">
         <v>10197.14</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I10" t="n">
         <v>10998.65</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J10" t="n">
         <v>45012.39</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>1</v>
-      </c>
-      <c r="B29" t="n">
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
         <v>16</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C11" t="n">
         <v>32768</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D11" t="n">
+        <v>64</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2024.2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4333.85</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5120.32</v>
+      </c>
+      <c r="H11" t="n">
+        <v>11837.2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>25388.84</v>
+      </c>
+      <c r="J11" t="n">
+        <v>79771.67999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>16</v>
+      </c>
+      <c r="C12" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D12" t="n">
+        <v>96</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2468.23</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4617.37</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4604.01</v>
+      </c>
+      <c r="H12" t="n">
+        <v>14022.79</v>
+      </c>
+      <c r="I12" t="n">
+        <v>40612.61</v>
+      </c>
+      <c r="J12" t="n">
+        <v>193334.28</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>16</v>
+      </c>
+      <c r="C13" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D13" t="n">
         <v>128</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E13" t="n">
         <v>3210.79</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F13" t="n">
         <v>6816.27</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G13" t="n">
         <v>4928.12</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H13" t="n">
         <v>15089.05</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I13" t="n">
         <v>40321.8</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J13" t="n">
         <v>190656.77</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>1</v>
-      </c>
-      <c r="B30" t="n">
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="n">
         <v>16</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C14" t="n">
         <v>65536</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D14" t="n">
+        <v>64</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2213.55</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5415.95</v>
+      </c>
+      <c r="G14" t="n">
+        <v>7185.6</v>
+      </c>
+      <c r="H14" t="n">
+        <v>20741.97</v>
+      </c>
+      <c r="I14" t="n">
+        <v>100961.21</v>
+      </c>
+      <c r="J14" t="n">
+        <v>334040.2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>16</v>
+      </c>
+      <c r="C15" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D15" t="n">
+        <v>96</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3095.83</v>
+      </c>
+      <c r="F15" t="n">
+        <v>7726.97</v>
+      </c>
+      <c r="G15" t="n">
+        <v>8973.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>26712.24</v>
+      </c>
+      <c r="I15" t="n">
+        <v>165426.01</v>
+      </c>
+      <c r="J15" t="n">
+        <v>851994.77</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D16" t="n">
         <v>128</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E16" t="n">
         <v>3515.77</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F16" t="n">
         <v>9339.32</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G16" t="n">
         <v>10718.11</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H16" t="n">
         <v>29698.14</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I16" t="n">
         <v>165772.47</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J16" t="n">
         <v>848582.96</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>1</v>
-      </c>
-      <c r="B31" t="n">
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="n">
         <v>16</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C17" t="n">
         <v>131072</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D17" t="n">
+        <v>64</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6177.09</v>
+      </c>
+      <c r="F17" t="n">
+        <v>12194.95</v>
+      </c>
+      <c r="G17" t="n">
+        <v>14188.37</v>
+      </c>
+      <c r="H17" t="n">
+        <v>40927.73</v>
+      </c>
+      <c r="I17" t="n">
+        <v>409891.17</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1485814.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D18" t="n">
+        <v>96</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5900.92</v>
+      </c>
+      <c r="F18" t="n">
+        <v>15741.57</v>
+      </c>
+      <c r="G18" t="n">
+        <v>17919.47</v>
+      </c>
+      <c r="H18" t="n">
+        <v>52674.13</v>
+      </c>
+      <c r="I18" t="n">
+        <v>663660.33</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3490785.43</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D19" t="n">
         <v>128</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E19" t="n">
         <v>7163.02</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F19" t="n">
         <v>19147.96</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G19" t="n">
         <v>18758.81</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H19" t="n">
         <v>57014.16</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I19" t="n">
         <v>672400.27</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J19" t="n">
         <v>3463553.68</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>1</v>
-      </c>
-      <c r="B32" t="n">
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>materialized_forward_us</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>materialized_backward_us</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>non-materialized_forward_us</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>non-materialized_backward_us</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>left-product_forward_us</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>left-product_backward_us</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
         <v>32</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C2" t="n">
         <v>4096</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D2" t="n">
+        <v>64</v>
+      </c>
+      <c r="E2" t="n">
+        <v>469.68</v>
+      </c>
+      <c r="F2" t="n">
+        <v>767.53</v>
+      </c>
+      <c r="G2" t="n">
+        <v>631.63</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1647.91</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1259.67</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3108.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D3" t="n">
+        <v>96</v>
+      </c>
+      <c r="E3" t="n">
+        <v>488.73</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1267.62</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1423.04</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3794.94</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1919.27</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6307.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>32</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4096</v>
+      </c>
+      <c r="D4" t="n">
         <v>128</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E4" t="n">
         <v>937.33</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F4" t="n">
         <v>2947.88</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G4" t="n">
         <v>1607.48</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H4" t="n">
         <v>3539.34</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I4" t="n">
         <v>2191.23</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J4" t="n">
         <v>6625.91</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>1</v>
-      </c>
-      <c r="B33" t="n">
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
         <v>32</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C5" t="n">
         <v>8192</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D5" t="n">
+        <v>64</v>
+      </c>
+      <c r="E5" t="n">
+        <v>588.91</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2007.72</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1065.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2848.81</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3851.33</v>
+      </c>
+      <c r="J5" t="n">
+        <v>10321.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>32</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1436.32</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3923.46</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3146.75</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7033.73</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6445.52</v>
+      </c>
+      <c r="J6" t="n">
+        <v>22996.63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>32</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8192</v>
+      </c>
+      <c r="D7" t="n">
         <v>128</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E7" t="n">
         <v>900.6799999999999</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F7" t="n">
         <v>2344.77</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G7" t="n">
         <v>2124.62</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H7" t="n">
         <v>5803.22</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I7" t="n">
         <v>5692.42</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J7" t="n">
         <v>22163.35</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>1</v>
-      </c>
-      <c r="B34" t="n">
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
         <v>32</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C8" t="n">
         <v>16384</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D8" t="n">
+        <v>64</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1238.05</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3895.43</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2562.22</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5851.07</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12946.45</v>
+      </c>
+      <c r="J8" t="n">
+        <v>38444.52</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>32</v>
+      </c>
+      <c r="C9" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D9" t="n">
+        <v>96</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2384.5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5811.38</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3295.5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10134.53</v>
+      </c>
+      <c r="I9" t="n">
+        <v>20866.56</v>
+      </c>
+      <c r="J9" t="n">
+        <v>90422.89</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>32</v>
+      </c>
+      <c r="C10" t="n">
+        <v>16384</v>
+      </c>
+      <c r="D10" t="n">
         <v>128</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E10" t="n">
         <v>2109.29</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F10" t="n">
         <v>5163.48</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G10" t="n">
         <v>4099.15</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H10" t="n">
         <v>11394.02</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I10" t="n">
         <v>20390.2</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J10" t="n">
         <v>90210.24000000001</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>1</v>
-      </c>
-      <c r="B35" t="n">
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
         <v>32</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C11" t="n">
         <v>32768</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D11" t="n">
+        <v>64</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1615.54</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4065.6</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4218.84</v>
+      </c>
+      <c r="H11" t="n">
+        <v>11914.96</v>
+      </c>
+      <c r="I11" t="n">
+        <v>49264.21</v>
+      </c>
+      <c r="J11" t="n">
+        <v>158822.2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>32</v>
+      </c>
+      <c r="C12" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D12" t="n">
+        <v>96</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2836.67</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7663.95</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6247.77</v>
+      </c>
+      <c r="H12" t="n">
+        <v>20521.36</v>
+      </c>
+      <c r="I12" t="n">
+        <v>81336.75</v>
+      </c>
+      <c r="J12" t="n">
+        <v>388142.45</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>32</v>
+      </c>
+      <c r="C13" t="n">
+        <v>32768</v>
+      </c>
+      <c r="D13" t="n">
         <v>128</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E13" t="n">
         <v>3389.43</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F13" t="n">
         <v>9843.190000000001</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G13" t="n">
         <v>8503.35</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H13" t="n">
         <v>22874.81</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I13" t="n">
         <v>80958.78</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J13" t="n">
         <v>383180.75</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>1</v>
-      </c>
-      <c r="B36" t="n">
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="n">
         <v>32</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C14" t="n">
         <v>65536</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D14" t="n">
+        <v>64</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3946.5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>10004</v>
+      </c>
+      <c r="G14" t="n">
+        <v>8111.71</v>
+      </c>
+      <c r="H14" t="n">
+        <v>23111.78</v>
+      </c>
+      <c r="I14" t="n">
+        <v>203827.03</v>
+      </c>
+      <c r="J14" t="n">
+        <v>682215.97</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>32</v>
+      </c>
+      <c r="C15" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D15" t="n">
+        <v>96</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5309.76</v>
+      </c>
+      <c r="F15" t="n">
+        <v>14632.24</v>
+      </c>
+      <c r="G15" t="n">
+        <v>12575.95</v>
+      </c>
+      <c r="H15" t="n">
+        <v>40878.2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>328461.92</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1727908.38</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>32</v>
+      </c>
+      <c r="C16" t="n">
+        <v>65536</v>
+      </c>
+      <c r="D16" t="n">
         <v>128</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E16" t="n">
         <v>6932.65</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F16" t="n">
         <v>19054.99</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G16" t="n">
         <v>14018.42</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H16" t="n">
         <v>45579.83</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I16" t="n">
         <v>332646.13</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J16" t="n">
         <v>1728481.26</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>1</v>
-      </c>
-      <c r="B37" t="n">
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="n">
         <v>32</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C17" t="n">
         <v>131072</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D17" t="n">
+        <v>64</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6375.24</v>
+      </c>
+      <c r="F17" t="n">
+        <v>15776.03</v>
+      </c>
+      <c r="G17" t="n">
+        <v>15247.21</v>
+      </c>
+      <c r="H17" t="n">
+        <v>43499.18</v>
+      </c>
+      <c r="I17" t="n">
+        <v>823961.15</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3023698.68</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="n">
+        <v>32</v>
+      </c>
+      <c r="C18" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D18" t="n">
+        <v>96</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9338.07</v>
+      </c>
+      <c r="F18" t="n">
+        <v>27986.12</v>
+      </c>
+      <c r="G18" t="n">
+        <v>27717.09</v>
+      </c>
+      <c r="H18" t="n">
+        <v>91230.13</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1332352.9</v>
+      </c>
+      <c r="J18" t="n">
+        <v>7032663.19</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="n">
+        <v>32</v>
+      </c>
+      <c r="C19" t="n">
+        <v>131072</v>
+      </c>
+      <c r="D19" t="n">
         <v>128</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E19" t="n">
         <v>13761.23</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F19" t="n">
         <v>34810.1</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G19" t="n">
         <v>29419</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H19" t="n">
         <v>99101.53999999999</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I19" t="n">
         <v>1359167.54</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J19" t="n">
         <v>6970277.24</v>
       </c>
     </row>
